--- a/pandas.xlsx
+++ b/pandas.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="basics" sheetId="2" r:id="rId2"/>
+    <sheet name="numpy" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="621">
   <si>
     <t>Series</t>
   </si>
@@ -13149,6 +13150,433 @@
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>import numpy as np</t>
+  </si>
+  <si>
+    <t># Evenly spaced numbers</t>
+  </si>
+  <si>
+    <t># Logarithmic spacing</t>
+  </si>
+  <si>
+    <t># Identity matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print(np.eye(3)) </t>
+  </si>
+  <si>
+    <t>[0.   0.25 0.5  0.75 1.  ]</t>
+  </si>
+  <si>
+    <t>print(np.linspace(0, 1, 5))</t>
+  </si>
+  <si>
+    <t>[10.  46.41588834  215.443469   1000.]</t>
+  </si>
+  <si>
+    <t>print(np.logspace(1, 3, 4))</t>
+  </si>
+  <si>
+    <t>[[1. 0. 0.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0. 1. 0.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0. 0. 1.]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> numpy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> np</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Creating arrays in fancy ways</t>
+  </si>
+  <si>
+    <t>2. Boolean masking (filtering)</t>
+  </si>
+  <si>
+    <t># Select only numbers &gt; 10</t>
+  </si>
+  <si>
+    <t>[12 18 25]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = np.array([5, 12, 18, 7, 3, 25])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 10])</t>
+    </r>
+  </si>
+  <si>
+    <t># Adds column vector b to row vector a</t>
+  </si>
+  <si>
+    <t>print(a + b)</t>
+  </si>
+  <si>
+    <t>[[11 12 13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [21 22 23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [31 32 33]]</t>
+  </si>
+  <si>
+    <t>3. Broadcasting (automatic expansion)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = np.array([1, 2, 3])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = np.array([[10], [20], [30]])</t>
+    </r>
+  </si>
+  <si>
+    <t># Random integers</t>
+  </si>
+  <si>
+    <t>print(np.random.randint(1, 10, (3, 3)))</t>
+  </si>
+  <si>
+    <t># Random choice with probabilities</t>
+  </si>
+  <si>
+    <t>print(np.random.choice(["Cat", "Dog", "Bird"], size=5, p=[0.5, 0.3, 0.2]))</t>
+  </si>
+  <si>
+    <t>[[7 4 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7 6 2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7 9 2]]</t>
+  </si>
+  <si>
+    <t>['Dog' 'Bird' 'Cat' 'Cat' 'Cat']</t>
+  </si>
+  <si>
+    <t>4. Random tricks</t>
+  </si>
+  <si>
+    <t>5. Fancy indexing</t>
+  </si>
+  <si>
+    <t>arr = np.array([10, 20, 30, 40, 50])</t>
+  </si>
+  <si>
+    <t>idx = [0, 2, 4]</t>
+  </si>
+  <si>
+    <t>print(arr[idx])</t>
+  </si>
+  <si>
+    <t>[10 30 50]</t>
+  </si>
+  <si>
+    <t>arr = np.arange(12)   # [0..11]</t>
+  </si>
+  <si>
+    <t>print(arr.reshape(3, 4))   # 3x4 matrix</t>
+  </si>
+  <si>
+    <t>6. Reshaping magic</t>
+  </si>
+  <si>
+    <t>[[ 0  1  2  3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 4  5  6  7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 8  9 10 11]]</t>
+  </si>
+  <si>
+    <t>nums = [1, 2, 3, 4, 5]</t>
+  </si>
+  <si>
+    <t>squared = [x**2 for x in nums]   # Python loop under the hood</t>
+  </si>
+  <si>
+    <t>print(squared)</t>
+  </si>
+  <si>
+    <t>List comprehentions Vs vectorization</t>
+  </si>
+  <si>
+    <t>vectorization</t>
+  </si>
+  <si>
+    <t>Example with plain Python list</t>
+  </si>
+  <si>
+    <t>arr = np.array([1, 2, 3, 4, 5])</t>
+  </si>
+  <si>
+    <t>squared = arr ** 2   # No loop you write, NumPy does it internally</t>
+  </si>
+  <si>
+    <t>[1, 4, 9, 16, 25]</t>
+  </si>
+  <si>
+    <t>[ 1  4  9 16 25]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">performing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>operations on whole arrays</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (vectors/matrices) at once, instead of looping through elements one by one</t>
+    </r>
+  </si>
+  <si>
+    <t>Why Numpy is this faster?</t>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Memory efficiency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: NumPy arrays are stored in contiguous blocks of memory, unlike Python lists. This makes operations faster and cache-friendly</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> No Python overhead</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Python loops are slow because each iteration involves interpreter overhead. NumPy avoids this</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Implemented in C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: NumPy’s array operations are written in optimized C (or Fortran), which is way faster than Python loops</t>
     </r>
   </si>
 </sst>
@@ -13156,12 +13584,28 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="41">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13662,10 +14106,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -13675,115 +14119,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13793,11 +14239,11 @@
   <colors>
     <mruColors>
       <color rgb="FFDA7BB9"/>
+      <color rgb="FFA626A4"/>
       <color rgb="FF64AF8C"/>
       <color rgb="FF179A77"/>
       <color rgb="FFA47A20"/>
       <color rgb="FF1E7D6A"/>
-      <color rgb="FFA626A4"/>
       <color rgb="FFFF33CC"/>
       <color rgb="FF005F6A"/>
     </mruColors>
@@ -16413,8 +16859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R618"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A507" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H521" sqref="H521"/>
+    <sheetView topLeftCell="A522" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G517" sqref="G517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20522,8 +20968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:M271"/>
   <sheetViews>
-    <sheetView topLeftCell="A261" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A271" sqref="A271"/>
+    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D268" sqref="D268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22992,7 +23438,7 @@
       </c>
     </row>
     <row r="256" spans="1:12">
-      <c r="B256" t="s">
+      <c r="B256" s="23" t="s">
         <v>508</v>
       </c>
     </row>
@@ -23040,7 +23486,7 @@
       </c>
     </row>
     <row r="269" spans="2:5">
-      <c r="B269" t="s">
+      <c r="B269" s="23" t="s">
         <v>511</v>
       </c>
     </row>
@@ -23054,4 +23500,505 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A5:M85"/>
+  <sheetViews>
+    <sheetView topLeftCell="A70" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="5" spans="1:6">
+      <c r="A5" s="23" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="95" t="s">
+        <v>571</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="F10" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="F13" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="F16" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="F17" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="F18" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="23" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="96" t="s">
+        <v>576</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="23" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="B33" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" s="96" t="s">
+        <v>584</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="96" t="s">
+        <v>585</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="G37" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+      <c r="G38" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="B39" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="G39" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="23" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="B43" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8"/>
+      <c r="G44" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="B45" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="8"/>
+      <c r="G45" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="B46" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="8"/>
+      <c r="G46" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="B48" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="B49" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="J49" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="23" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="B54" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="B55" s="6"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="B56" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="B57" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="B58" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="11"/>
+      <c r="G58" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="23" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="23"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="B63" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="B64" s="6"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="8"/>
+      <c r="G64" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="B65" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="8"/>
+      <c r="G65" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="B66" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="11"/>
+      <c r="G66" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="23" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="23"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="B71" s="23" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="C72" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="B74" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="5"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="B75" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="5"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="8"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="B76" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="8"/>
+      <c r="H76" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="8"/>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="B77" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="11"/>
+      <c r="H77" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="8"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="D78" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="11"/>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="J79" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" s="23" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="C83" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="C84" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="C85" t="s">
+        <v>618</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pandas.xlsx
+++ b/pandas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="629">
   <si>
     <t>Series</t>
   </si>
@@ -13577,6 +13577,473 @@
         <scheme val="minor"/>
       </rPr>
       <t>: NumPy’s array operations are written in optimized C (or Fortran), which is way faster than Python loops</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pandas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V6K8025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>340</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df_out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = pd.DataFrame(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>results</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Артикул</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Клиент кол</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Склад кол</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Статус</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Артикул</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Клиент кол.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Склад кол.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Статус</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2  V6K6040           40           358            OK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  1  V6K8025          340          338           Частична наличност</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    #  Артикул  Клиент кол.  Склад кол.    Статус                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Недоставено</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0  1  V6K8025          340                338            Частична наличност      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
     </r>
   </si>
 </sst>
@@ -13584,12 +14051,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14106,10 +14581,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -14119,117 +14594,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14238,10 +14717,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF179A77"/>
+      <color rgb="FFA626A4"/>
       <color rgb="FFDA7BB9"/>
-      <color rgb="FFA626A4"/>
       <color rgb="FF64AF8C"/>
-      <color rgb="FF179A77"/>
       <color rgb="FFA47A20"/>
       <color rgb="FF1E7D6A"/>
       <color rgb="FFFF33CC"/>
@@ -15393,13 +15872,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>273269</xdr:colOff>
-      <xdr:row>506</xdr:row>
+      <xdr:row>502</xdr:row>
       <xdr:rowOff>15766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>562303</xdr:colOff>
-      <xdr:row>506</xdr:row>
+      <xdr:row>502</xdr:row>
       <xdr:rowOff>31531</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15487,13 +15966,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>140677</xdr:colOff>
-      <xdr:row>511</xdr:row>
+      <xdr:row>509</xdr:row>
       <xdr:rowOff>94593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>578069</xdr:colOff>
-      <xdr:row>513</xdr:row>
+      <xdr:row>511</xdr:row>
       <xdr:rowOff>52755</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15534,13 +16013,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>451945</xdr:colOff>
-      <xdr:row>514</xdr:row>
+      <xdr:row>512</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>578069</xdr:colOff>
-      <xdr:row>514</xdr:row>
+      <xdr:row>512</xdr:row>
       <xdr:rowOff>5255</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15581,14 +16060,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>252415</xdr:colOff>
-      <xdr:row>511</xdr:row>
-      <xdr:rowOff>141889</xdr:rowOff>
+      <xdr:row>509</xdr:row>
+      <xdr:rowOff>94594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>583324</xdr:colOff>
-      <xdr:row>513</xdr:row>
-      <xdr:rowOff>52389</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>578069</xdr:colOff>
+      <xdr:row>511</xdr:row>
+      <xdr:rowOff>52390</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15597,8 +16076,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="862015" y="94130648"/>
-          <a:ext cx="940509" cy="278362"/>
+          <a:off x="862015" y="93347628"/>
+          <a:ext cx="1544854" cy="325659"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -15628,13 +16107,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>483476</xdr:colOff>
-      <xdr:row>525</xdr:row>
+      <xdr:row>523</xdr:row>
       <xdr:rowOff>168165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>572814</xdr:colOff>
-      <xdr:row>529</xdr:row>
+      <xdr:row>527</xdr:row>
       <xdr:rowOff>21021</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15675,13 +16154,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>123092</xdr:colOff>
-      <xdr:row>526</xdr:row>
+      <xdr:row>524</xdr:row>
       <xdr:rowOff>93784</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>451338</xdr:colOff>
-      <xdr:row>526</xdr:row>
+      <xdr:row>524</xdr:row>
       <xdr:rowOff>95372</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15722,13 +16201,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>57807</xdr:colOff>
-      <xdr:row>537</xdr:row>
+      <xdr:row>536</xdr:row>
       <xdr:rowOff>42041</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>520262</xdr:colOff>
-      <xdr:row>539</xdr:row>
+      <xdr:row>538</xdr:row>
       <xdr:rowOff>147145</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15769,13 +16248,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>467710</xdr:colOff>
-      <xdr:row>541</xdr:row>
+      <xdr:row>540</xdr:row>
       <xdr:rowOff>21021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>509752</xdr:colOff>
-      <xdr:row>541</xdr:row>
+      <xdr:row>540</xdr:row>
       <xdr:rowOff>31531</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15816,13 +16295,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>115614</xdr:colOff>
-      <xdr:row>544</xdr:row>
+      <xdr:row>543</xdr:row>
       <xdr:rowOff>168168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>551793</xdr:colOff>
-      <xdr:row>545</xdr:row>
+      <xdr:row>544</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15863,13 +16342,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>17585</xdr:colOff>
-      <xdr:row>552</xdr:row>
+      <xdr:row>551</xdr:row>
       <xdr:rowOff>41031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>556846</xdr:colOff>
-      <xdr:row>552</xdr:row>
+      <xdr:row>551</xdr:row>
       <xdr:rowOff>42619</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15910,13 +16389,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>351183</xdr:colOff>
-      <xdr:row>563</xdr:row>
+      <xdr:row>562</xdr:row>
       <xdr:rowOff>132521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>566738</xdr:colOff>
-      <xdr:row>563</xdr:row>
+      <xdr:row>562</xdr:row>
       <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15957,13 +16436,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>344557</xdr:colOff>
-      <xdr:row>598</xdr:row>
+      <xdr:row>597</xdr:row>
       <xdr:rowOff>6626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>523461</xdr:colOff>
-      <xdr:row>602</xdr:row>
+      <xdr:row>601</xdr:row>
       <xdr:rowOff>159026</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16004,13 +16483,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>58615</xdr:colOff>
-      <xdr:row>556</xdr:row>
+      <xdr:row>555</xdr:row>
       <xdr:rowOff>17585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>574431</xdr:colOff>
-      <xdr:row>556</xdr:row>
+      <xdr:row>555</xdr:row>
       <xdr:rowOff>158262</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16051,13 +16530,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>527538</xdr:colOff>
-      <xdr:row>559</xdr:row>
+      <xdr:row>558</xdr:row>
       <xdr:rowOff>35169</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>556846</xdr:colOff>
-      <xdr:row>559</xdr:row>
+      <xdr:row>558</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16285,15 +16764,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>110360</xdr:colOff>
-      <xdr:row>510</xdr:row>
-      <xdr:rowOff>36786</xdr:rowOff>
+      <xdr:colOff>114822</xdr:colOff>
+      <xdr:row>507</xdr:row>
+      <xdr:rowOff>42043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>114821</xdr:colOff>
-      <xdr:row>512</xdr:row>
-      <xdr:rowOff>158449</xdr:rowOff>
+      <xdr:colOff>120869</xdr:colOff>
+      <xdr:row>510</xdr:row>
+      <xdr:rowOff>158451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -16301,9 +16780,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="477428" y="94084146"/>
-          <a:ext cx="489525" cy="4461"/>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="301379" y="93534189"/>
+          <a:ext cx="852133" cy="6047"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -16857,10 +17336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R618"/>
+  <dimension ref="A1:R617"/>
   <sheetViews>
-    <sheetView topLeftCell="A522" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G517" sqref="G517"/>
+    <sheetView tabSelected="1" topLeftCell="A533" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E546" sqref="E546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19641,8 +20120,8 @@
       <c r="P445" s="8"/>
     </row>
     <row r="446" spans="1:16">
-      <c r="B446" s="75" t="s">
-        <v>131</v>
+      <c r="B446" s="97" t="s">
+        <v>621</v>
       </c>
       <c r="G446" s="9" t="s">
         <v>543</v>
@@ -19767,8 +20246,8 @@
       <c r="E470" s="4"/>
       <c r="F470" s="4"/>
       <c r="G470" s="5"/>
-      <c r="I470" s="75" t="s">
-        <v>502</v>
+      <c r="I470" s="97" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="471" spans="2:9">
@@ -19803,6 +20282,9 @@
       <c r="E473" s="7"/>
       <c r="F473" s="7"/>
       <c r="G473" s="8"/>
+      <c r="I473" s="77">
+        <v>340</v>
+      </c>
     </row>
     <row r="474" spans="2:9">
       <c r="B474" s="6"/>
@@ -19942,7 +20424,7 @@
       <c r="F486" s="7"/>
       <c r="G486" s="8"/>
       <c r="K486" s="3" t="s">
-        <v>450</v>
+        <v>624</v>
       </c>
       <c r="L486" s="4"/>
       <c r="M486" s="4"/>
@@ -19976,8 +20458,8 @@
       <c r="O488" s="11"/>
     </row>
     <row r="490" spans="2:15">
-      <c r="B490" s="75" t="s">
-        <v>440</v>
+      <c r="B490" s="97" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="491" spans="2:15">
@@ -20018,95 +20500,109 @@
       <c r="M494" s="92"/>
       <c r="N494" s="93"/>
     </row>
+    <row r="497" spans="2:16">
+      <c r="B497" s="75"/>
+    </row>
     <row r="498" spans="2:16">
       <c r="B498" s="75"/>
-      <c r="K498" s="7"/>
-      <c r="L498" s="7"/>
-      <c r="M498" s="7"/>
-      <c r="N498" s="7"/>
-      <c r="O498" s="7"/>
     </row>
     <row r="499" spans="2:16">
-      <c r="B499" s="75"/>
-      <c r="K499" s="7"/>
-      <c r="L499" s="7"/>
-      <c r="M499" s="7"/>
-      <c r="N499" s="7"/>
-      <c r="O499" s="7"/>
+      <c r="B499" s="78" t="s">
+        <v>406</v>
+      </c>
+      <c r="L499" s="84" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="500" spans="2:16">
-      <c r="B500" s="75"/>
+      <c r="B500" s="75" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="501" spans="2:16">
-      <c r="B501" s="75"/>
+      <c r="L501" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="502" spans="2:16">
-      <c r="B502" s="75"/>
+      <c r="B502" s="84" t="s">
+        <v>539</v>
+      </c>
+      <c r="L502" s="23" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="503" spans="2:16">
-      <c r="B503" s="78" t="s">
-        <v>406</v>
-      </c>
-      <c r="L503" s="84" t="s">
-        <v>556</v>
-      </c>
+      <c r="L503" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="M503" s="4"/>
+      <c r="N503" s="4"/>
+      <c r="O503" s="4"/>
+      <c r="P503" s="5"/>
     </row>
     <row r="504" spans="2:16">
-      <c r="B504" s="75" t="s">
-        <v>448</v>
-      </c>
+      <c r="L504" s="100" t="s">
+        <v>626</v>
+      </c>
+      <c r="M504" s="7"/>
+      <c r="N504" s="7"/>
+      <c r="O504" s="7"/>
+      <c r="P504" s="8"/>
     </row>
     <row r="505" spans="2:16">
-      <c r="L505" t="s">
-        <v>454</v>
-      </c>
+      <c r="B505" s="75"/>
+      <c r="D505" s="79"/>
+      <c r="F505" s="75"/>
+      <c r="L505" s="99" t="s">
+        <v>625</v>
+      </c>
+      <c r="M505" s="10"/>
+      <c r="N505" s="10"/>
+      <c r="O505" s="10"/>
+      <c r="P505" s="11"/>
     </row>
     <row r="506" spans="2:16">
-      <c r="B506" s="84" t="s">
-        <v>539</v>
-      </c>
-      <c r="L506" s="23" t="s">
-        <v>202</v>
-      </c>
+      <c r="B506" s="75"/>
+      <c r="D506" s="79"/>
+      <c r="F506" s="75"/>
+      <c r="L506" s="98"/>
+      <c r="M506" s="7"/>
+      <c r="N506" s="7"/>
+      <c r="O506" s="7"/>
+      <c r="P506" s="7"/>
     </row>
     <row r="507" spans="2:16">
-      <c r="L507" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="M507" s="4"/>
-      <c r="N507" s="4"/>
-      <c r="O507" s="4"/>
-      <c r="P507" s="5"/>
+      <c r="B507" s="84" t="s">
+        <v>453</v>
+      </c>
+      <c r="D507" s="79"/>
+      <c r="E507" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="508" spans="2:16">
-      <c r="L508" s="80" t="s">
-        <v>462</v>
-      </c>
-      <c r="M508" s="7"/>
-      <c r="N508" s="7"/>
-      <c r="O508" s="7"/>
-      <c r="P508" s="8"/>
+      <c r="B508" s="84"/>
+      <c r="D508" s="79"/>
     </row>
     <row r="509" spans="2:16">
       <c r="B509" s="75"/>
       <c r="D509" s="79"/>
       <c r="F509" s="75"/>
-      <c r="L509" s="81" t="s">
-        <v>463</v>
-      </c>
-      <c r="M509" s="10"/>
-      <c r="N509" s="10"/>
-      <c r="O509" s="10"/>
-      <c r="P509" s="11"/>
     </row>
     <row r="510" spans="2:16">
-      <c r="B510" s="84" t="s">
-        <v>453</v>
-      </c>
-      <c r="D510" s="79"/>
-      <c r="E510" t="s">
-        <v>557</v>
-      </c>
+      <c r="B510" s="75"/>
+      <c r="E510" s="79" t="s">
+        <v>461</v>
+      </c>
+      <c r="F510" s="75"/>
+      <c r="L510" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="M510" s="14"/>
+      <c r="N510" s="14"/>
+      <c r="O510" s="14"/>
+      <c r="P510" s="15"/>
     </row>
     <row r="511" spans="2:16">
       <c r="B511" s="75"/>
@@ -20114,207 +20610,198 @@
       <c r="F511" s="75"/>
     </row>
     <row r="512" spans="2:16">
-      <c r="B512" s="75"/>
-      <c r="D512" s="79" t="s">
-        <v>461</v>
-      </c>
-      <c r="F512" s="75"/>
-      <c r="L512" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="M512" s="14"/>
-      <c r="N512" s="14"/>
-      <c r="O512" s="14"/>
-      <c r="P512" s="15"/>
-    </row>
-    <row r="513" spans="2:14">
-      <c r="B513" s="75"/>
-      <c r="D513" s="79"/>
-      <c r="F513" s="75"/>
-    </row>
-    <row r="514" spans="2:14">
-      <c r="B514" s="3" t="s">
+      <c r="B512" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="C514" s="4"/>
-      <c r="D514" s="4"/>
-      <c r="E514" s="4"/>
-      <c r="F514" s="4"/>
-      <c r="G514" s="5"/>
-    </row>
-    <row r="515" spans="2:14">
+      <c r="C512" s="4"/>
+      <c r="D512" s="4"/>
+      <c r="E512" s="4"/>
+      <c r="F512" s="4"/>
+      <c r="G512" s="5"/>
+    </row>
+    <row r="513" spans="2:16">
+      <c r="B513" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C513" s="7"/>
+      <c r="D513" s="7"/>
+      <c r="E513" s="7"/>
+      <c r="F513" s="7"/>
+      <c r="G513" s="8"/>
+      <c r="J513" s="77">
+        <v>338</v>
+      </c>
+      <c r="L513" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="514" spans="2:16">
+      <c r="B514" s="6"/>
+      <c r="C514" s="7"/>
+      <c r="D514" s="7"/>
+      <c r="E514" s="7"/>
+      <c r="F514" s="7"/>
+      <c r="G514" s="8"/>
+      <c r="L514" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="M514" s="4"/>
+      <c r="N514" s="5"/>
+    </row>
+    <row r="515" spans="2:16">
       <c r="B515" s="6" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="C515" s="7"/>
       <c r="D515" s="7"/>
       <c r="E515" s="7"/>
       <c r="F515" s="7"/>
       <c r="G515" s="8"/>
-      <c r="J515" s="77">
-        <v>338</v>
-      </c>
-      <c r="L515" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="516" spans="2:14">
-      <c r="B516" s="6"/>
+      <c r="L515" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="M515" s="7"/>
+      <c r="N515" s="8"/>
+    </row>
+    <row r="516" spans="2:16">
+      <c r="B516" s="6" t="s">
+        <v>523</v>
+      </c>
       <c r="C516" s="7"/>
       <c r="D516" s="7"/>
       <c r="E516" s="7"/>
       <c r="F516" s="7"/>
       <c r="G516" s="8"/>
-      <c r="L516" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="M516" s="4"/>
-      <c r="N516" s="5"/>
-    </row>
-    <row r="517" spans="2:14">
-      <c r="B517" s="6" t="s">
-        <v>522</v>
-      </c>
+      <c r="L516" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="M516" s="7"/>
+      <c r="N516" s="8"/>
+    </row>
+    <row r="517" spans="2:16">
+      <c r="B517" s="6"/>
       <c r="C517" s="7"/>
       <c r="D517" s="7"/>
       <c r="E517" s="7"/>
       <c r="F517" s="7"/>
       <c r="G517" s="8"/>
       <c r="L517" s="6" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M517" s="7"/>
       <c r="N517" s="8"/>
     </row>
-    <row r="518" spans="2:14">
+    <row r="518" spans="2:16">
       <c r="B518" s="6" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="C518" s="7"/>
       <c r="D518" s="7"/>
       <c r="E518" s="7"/>
       <c r="F518" s="7"/>
       <c r="G518" s="8"/>
-      <c r="L518" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="M518" s="7"/>
-      <c r="N518" s="8"/>
-    </row>
-    <row r="519" spans="2:14">
-      <c r="B519" s="6"/>
-      <c r="C519" s="7"/>
-      <c r="D519" s="7"/>
-      <c r="E519" s="7"/>
-      <c r="F519" s="7"/>
-      <c r="G519" s="8"/>
-      <c r="L519" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="M519" s="7"/>
-      <c r="N519" s="8"/>
-    </row>
-    <row r="520" spans="2:14">
-      <c r="B520" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="C520" s="7"/>
-      <c r="D520" s="7"/>
-      <c r="E520" s="7"/>
-      <c r="F520" s="7"/>
-      <c r="G520" s="8"/>
-      <c r="L520" s="9" t="s">
+      <c r="L518" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="M520" s="10"/>
-      <c r="N520" s="11"/>
-    </row>
-    <row r="521" spans="2:14">
-      <c r="B521" s="94" t="s">
+      <c r="M518" s="10"/>
+      <c r="N518" s="11"/>
+    </row>
+    <row r="519" spans="2:16">
+      <c r="B519" s="94" t="s">
         <v>524</v>
       </c>
-      <c r="C521" s="10"/>
-      <c r="D521" s="10"/>
-      <c r="E521" s="10"/>
-      <c r="F521" s="10"/>
-      <c r="G521" s="11"/>
-      <c r="I521" s="2" t="s">
+      <c r="C519" s="10"/>
+      <c r="D519" s="10"/>
+      <c r="E519" s="10"/>
+      <c r="F519" s="10"/>
+      <c r="G519" s="11"/>
+      <c r="I519" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="524" spans="2:14">
+    <row r="522" spans="2:16">
+      <c r="B522" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="523" spans="2:16">
+      <c r="B523" s="75" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="524" spans="2:16">
       <c r="B524" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="525" spans="2:14">
-      <c r="B525" s="75" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="526" spans="2:14">
-      <c r="B526" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="527" spans="2:14">
+    <row r="525" spans="2:16">
+      <c r="B525" t="s">
+        <v>471</v>
+      </c>
+      <c r="K525" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="L525" s="14"/>
+      <c r="M525" s="14"/>
+      <c r="N525" s="15"/>
+    </row>
+    <row r="526" spans="2:16">
+      <c r="B526" s="75" t="s">
+        <v>473</v>
+      </c>
+      <c r="K526" s="7"/>
+      <c r="L526" s="7"/>
+      <c r="M526" s="7"/>
+      <c r="N526" s="7"/>
+    </row>
+    <row r="527" spans="2:16">
       <c r="B527" t="s">
-        <v>471</v>
-      </c>
-      <c r="K527" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="L527" s="14"/>
-      <c r="M527" s="14"/>
-      <c r="N527" s="15"/>
-    </row>
-    <row r="528" spans="2:14">
-      <c r="B528" s="75" t="s">
-        <v>473</v>
-      </c>
-      <c r="K528" s="7"/>
-      <c r="L528" s="7"/>
-      <c r="M528" s="7"/>
-      <c r="N528" s="7"/>
+        <v>474</v>
+      </c>
+      <c r="K527" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="N527" s="7"/>
+    </row>
+    <row r="528" spans="2:16">
+      <c r="K528" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="L528" s="4"/>
+      <c r="M528" s="4"/>
+      <c r="N528" s="4"/>
+      <c r="O528" s="4"/>
+      <c r="P528" s="5"/>
     </row>
     <row r="529" spans="2:16">
-      <c r="B529" t="s">
-        <v>474</v>
-      </c>
-      <c r="K529" s="82" t="s">
-        <v>202</v>
-      </c>
+      <c r="K529" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="L529" s="7"/>
+      <c r="M529" s="7"/>
       <c r="N529" s="7"/>
+      <c r="O529" s="7"/>
+      <c r="P529" s="8"/>
     </row>
     <row r="530" spans="2:16">
-      <c r="K530" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="L530" s="4"/>
-      <c r="M530" s="4"/>
-      <c r="N530" s="4"/>
-      <c r="O530" s="4"/>
-      <c r="P530" s="5"/>
+      <c r="K530" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="L530" s="10"/>
+      <c r="M530" s="10"/>
+      <c r="N530" s="10"/>
+      <c r="O530" s="10"/>
+      <c r="P530" s="11"/>
     </row>
     <row r="531" spans="2:16">
-      <c r="K531" s="6" t="s">
-        <v>526</v>
-      </c>
+      <c r="K531" s="7"/>
       <c r="L531" s="7"/>
       <c r="M531" s="7"/>
-      <c r="N531" s="7"/>
-      <c r="O531" s="7"/>
-      <c r="P531" s="8"/>
     </row>
     <row r="532" spans="2:16">
-      <c r="K532" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="L532" s="10"/>
-      <c r="M532" s="10"/>
-      <c r="N532" s="10"/>
-      <c r="O532" s="10"/>
-      <c r="P532" s="11"/>
+      <c r="K532" s="7"/>
+      <c r="L532" s="7"/>
+      <c r="M532" s="7"/>
     </row>
     <row r="533" spans="2:16">
       <c r="K533" s="7"/>
@@ -20322,96 +20809,101 @@
       <c r="M533" s="7"/>
     </row>
     <row r="534" spans="2:16">
-      <c r="K534" s="7"/>
-      <c r="L534" s="7"/>
-      <c r="M534" s="7"/>
+      <c r="B534" s="78" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="535" spans="2:16">
-      <c r="B535" s="78" t="s">
-        <v>410</v>
+      <c r="B535" s="84" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="536" spans="2:16">
-      <c r="B536" s="84" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="537" spans="2:16">
-      <c r="B537" s="75" t="s">
+      <c r="B536" s="75" t="s">
         <v>505</v>
       </c>
     </row>
+    <row r="539" spans="2:16">
+      <c r="B539" s="84" t="s">
+        <v>534</v>
+      </c>
+      <c r="L539" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
     <row r="540" spans="2:16">
-      <c r="B540" s="84" t="s">
-        <v>534</v>
-      </c>
-      <c r="L540" s="23" t="s">
-        <v>202</v>
-      </c>
+      <c r="B540" t="s">
+        <v>482</v>
+      </c>
+      <c r="L540" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="M540" s="4"/>
+      <c r="N540" s="4"/>
+      <c r="O540" s="5"/>
     </row>
     <row r="541" spans="2:16">
-      <c r="B541" t="s">
-        <v>482</v>
-      </c>
-      <c r="L541" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="M541" s="4"/>
-      <c r="N541" s="4"/>
-      <c r="O541" s="5"/>
-    </row>
-    <row r="542" spans="2:16">
-      <c r="L542" s="9" t="s">
+      <c r="L541" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="M542" s="10"/>
-      <c r="N542" s="10"/>
-      <c r="O542" s="11"/>
+      <c r="M541" s="10"/>
+      <c r="N541" s="10"/>
+      <c r="O541" s="11"/>
+    </row>
+    <row r="543" spans="2:16">
+      <c r="B543" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="544" spans="2:16">
       <c r="B544" t="s">
-        <v>411</v>
+        <v>483</v>
+      </c>
+      <c r="L544" s="23" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="545" spans="2:18">
       <c r="B545" t="s">
-        <v>483</v>
-      </c>
-      <c r="L545" s="23" t="s">
-        <v>202</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="L545" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="M545" s="4"/>
+      <c r="N545" s="4"/>
+      <c r="O545" s="4"/>
+      <c r="P545" s="4"/>
+      <c r="Q545" s="4"/>
+      <c r="R545" s="5"/>
     </row>
     <row r="546" spans="2:18">
       <c r="B546" t="s">
-        <v>484</v>
-      </c>
-      <c r="L546" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="M546" s="4"/>
-      <c r="N546" s="4"/>
-      <c r="O546" s="4"/>
-      <c r="P546" s="4"/>
-      <c r="Q546" s="4"/>
-      <c r="R546" s="5"/>
+        <v>485</v>
+      </c>
+      <c r="L546" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="M546" s="10"/>
+      <c r="N546" s="10"/>
+      <c r="O546" s="10"/>
+      <c r="P546" s="10"/>
+      <c r="Q546" s="10"/>
+      <c r="R546" s="11"/>
     </row>
     <row r="547" spans="2:18">
       <c r="B547" t="s">
-        <v>485</v>
-      </c>
-      <c r="L547" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="M547" s="10"/>
-      <c r="N547" s="10"/>
-      <c r="O547" s="10"/>
-      <c r="P547" s="10"/>
-      <c r="Q547" s="10"/>
-      <c r="R547" s="11"/>
+        <v>486</v>
+      </c>
+      <c r="L547" s="7"/>
+      <c r="M547" s="7"/>
+      <c r="N547" s="7"/>
+      <c r="O547" s="7"/>
+      <c r="P547" s="7"/>
     </row>
     <row r="548" spans="2:18">
       <c r="B548" t="s">
-        <v>486</v>
+        <v>412</v>
       </c>
       <c r="L548" s="7"/>
       <c r="M548" s="7"/>
@@ -20420,9 +20912,6 @@
       <c r="P548" s="7"/>
     </row>
     <row r="549" spans="2:18">
-      <c r="B549" t="s">
-        <v>412</v>
-      </c>
       <c r="L549" s="7"/>
       <c r="M549" s="7"/>
       <c r="N549" s="7"/>
@@ -20430,205 +20919,209 @@
       <c r="P549" s="7"/>
     </row>
     <row r="550" spans="2:18">
-      <c r="L550" s="7"/>
-      <c r="M550" s="7"/>
-      <c r="N550" s="7"/>
-      <c r="O550" s="7"/>
-      <c r="P550" s="7"/>
+      <c r="B550" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="551" spans="2:18">
       <c r="B551" t="s">
-        <v>413</v>
+        <v>489</v>
       </c>
     </row>
     <row r="552" spans="2:18">
-      <c r="B552" t="s">
-        <v>489</v>
+      <c r="L552" s="23" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="553" spans="2:18">
-      <c r="L553" s="23" t="s">
-        <v>202</v>
-      </c>
+      <c r="L553" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="M553" s="4"/>
+      <c r="N553" s="5"/>
     </row>
     <row r="554" spans="2:18">
-      <c r="L554" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="M554" s="4"/>
-      <c r="N554" s="5"/>
+      <c r="B554" t="s">
+        <v>529</v>
+      </c>
+      <c r="L554" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="M554" s="10"/>
+      <c r="N554" s="11"/>
     </row>
     <row r="555" spans="2:18">
       <c r="B555" t="s">
-        <v>529</v>
-      </c>
-      <c r="L555" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="M555" s="10"/>
-      <c r="N555" s="11"/>
+        <v>531</v>
+      </c>
+      <c r="L555" s="82"/>
+      <c r="M555" s="7"/>
+      <c r="N555" s="7"/>
     </row>
     <row r="556" spans="2:18">
-      <c r="B556" t="s">
-        <v>531</v>
-      </c>
-      <c r="L556" s="82"/>
-      <c r="M556" s="7"/>
-      <c r="N556" s="7"/>
+      <c r="L556" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="M556" s="4"/>
+      <c r="N556" s="4"/>
+      <c r="O556" s="4"/>
+      <c r="P556" s="4"/>
+      <c r="Q556" s="5"/>
     </row>
     <row r="557" spans="2:18">
-      <c r="L557" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="M557" s="4"/>
-      <c r="N557" s="4"/>
-      <c r="O557" s="4"/>
-      <c r="P557" s="4"/>
-      <c r="Q557" s="5"/>
+      <c r="B557" t="s">
+        <v>530</v>
+      </c>
+      <c r="L557" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="M557" s="10"/>
+      <c r="N557" s="10"/>
+      <c r="O557" s="10"/>
+      <c r="P557" s="10"/>
+      <c r="Q557" s="11"/>
     </row>
     <row r="558" spans="2:18">
       <c r="B558" t="s">
-        <v>530</v>
-      </c>
-      <c r="L558" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="M558" s="10"/>
-      <c r="N558" s="10"/>
-      <c r="O558" s="10"/>
-      <c r="P558" s="10"/>
-      <c r="Q558" s="11"/>
+        <v>532</v>
+      </c>
+      <c r="L558" s="82"/>
+      <c r="M558" s="7"/>
+      <c r="N558" s="7"/>
     </row>
     <row r="559" spans="2:18">
-      <c r="B559" t="s">
-        <v>532</v>
-      </c>
-      <c r="L559" s="82"/>
-      <c r="M559" s="7"/>
-      <c r="N559" s="7"/>
+      <c r="L559" s="85" t="s">
+        <v>537</v>
+      </c>
+      <c r="M559" s="4"/>
+      <c r="N559" s="4"/>
+      <c r="O559" s="4"/>
+      <c r="P559" s="4"/>
+      <c r="Q559" s="4"/>
+      <c r="R559" s="5"/>
     </row>
     <row r="560" spans="2:18">
-      <c r="L560" s="85" t="s">
-        <v>537</v>
-      </c>
-      <c r="M560" s="4"/>
-      <c r="N560" s="4"/>
-      <c r="O560" s="4"/>
-      <c r="P560" s="4"/>
-      <c r="Q560" s="4"/>
-      <c r="R560" s="5"/>
-    </row>
-    <row r="561" spans="2:18">
-      <c r="L561" s="86" t="s">
+      <c r="L560" s="86" t="s">
         <v>538</v>
       </c>
-      <c r="M561" s="10"/>
-      <c r="N561" s="10"/>
-      <c r="O561" s="10"/>
-      <c r="P561" s="10"/>
-      <c r="Q561" s="10"/>
-      <c r="R561" s="11"/>
-    </row>
-    <row r="562" spans="2:18">
+      <c r="M560" s="10"/>
+      <c r="N560" s="10"/>
+      <c r="O560" s="10"/>
+      <c r="P560" s="10"/>
+      <c r="Q560" s="10"/>
+      <c r="R560" s="11"/>
+    </row>
+    <row r="561" spans="2:15">
+      <c r="B561" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="562" spans="2:15">
       <c r="B562" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="563" spans="2:18">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="563" spans="2:15">
       <c r="B563" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="564" spans="2:18">
-      <c r="B564" t="s">
         <v>492</v>
       </c>
-      <c r="L564" s="17" t="s">
+      <c r="L563" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="M564" s="15"/>
-      <c r="N564" s="76" t="s">
+      <c r="M563" s="15"/>
+      <c r="N563" s="76" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="566" spans="2:18">
-      <c r="B566" t="s">
+    <row r="565" spans="2:15">
+      <c r="B565" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="567" spans="2:18">
-      <c r="B567" s="75" t="s">
+    <row r="566" spans="2:15">
+      <c r="B566" s="75" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="568" spans="2:18">
-      <c r="B568" t="s">
+    <row r="567" spans="2:15">
+      <c r="B567" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="570" spans="2:18">
-      <c r="L570" s="76" t="s">
+    <row r="569" spans="2:15">
+      <c r="L569" s="76" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="571" spans="2:18">
-      <c r="B571" s="32" t="s">
+    <row r="570" spans="2:15">
+      <c r="B570" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="L571" s="23" t="s">
+      <c r="L570" s="23" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="572" spans="2:18">
+    <row r="571" spans="2:15">
+      <c r="B571" t="s">
+        <v>93</v>
+      </c>
+      <c r="L571" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M571" s="4"/>
+      <c r="N571" s="4"/>
+      <c r="O571" s="5"/>
+    </row>
+    <row r="572" spans="2:15">
       <c r="B572" t="s">
-        <v>93</v>
-      </c>
-      <c r="L572" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="M572" s="4"/>
-      <c r="N572" s="4"/>
-      <c r="O572" s="5"/>
-    </row>
-    <row r="573" spans="2:18">
+        <v>94</v>
+      </c>
+      <c r="L572" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M572" s="7"/>
+      <c r="N572" s="7"/>
+      <c r="O572" s="8"/>
+    </row>
+    <row r="573" spans="2:15">
       <c r="B573" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L573" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M573" s="7"/>
       <c r="N573" s="7"/>
       <c r="O573" s="8"/>
     </row>
-    <row r="574" spans="2:18">
+    <row r="574" spans="2:15">
       <c r="B574" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L574" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M574" s="7"/>
       <c r="N574" s="7"/>
       <c r="O574" s="8"/>
     </row>
-    <row r="575" spans="2:18">
+    <row r="575" spans="2:15">
       <c r="B575" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L575" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M575" s="7"/>
       <c r="N575" s="7"/>
       <c r="O575" s="8"/>
     </row>
-    <row r="576" spans="2:18">
+    <row r="576" spans="2:15">
       <c r="B576" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L576" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M576" s="7"/>
       <c r="N576" s="7"/>
@@ -20636,10 +21129,10 @@
     </row>
     <row r="577" spans="2:15">
       <c r="B577" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L577" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M577" s="7"/>
       <c r="N577" s="7"/>
@@ -20647,10 +21140,10 @@
     </row>
     <row r="578" spans="2:15">
       <c r="B578" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L578" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M578" s="7"/>
       <c r="N578" s="7"/>
@@ -20658,10 +21151,10 @@
     </row>
     <row r="579" spans="2:15">
       <c r="B579" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L579" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M579" s="7"/>
       <c r="N579" s="7"/>
@@ -20669,10 +21162,10 @@
     </row>
     <row r="580" spans="2:15">
       <c r="B580" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L580" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M580" s="7"/>
       <c r="N580" s="7"/>
@@ -20680,10 +21173,10 @@
     </row>
     <row r="581" spans="2:15">
       <c r="B581" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L581" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M581" s="7"/>
       <c r="N581" s="7"/>
@@ -20691,10 +21184,10 @@
     </row>
     <row r="582" spans="2:15">
       <c r="B582" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L582" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M582" s="7"/>
       <c r="N582" s="7"/>
@@ -20702,10 +21195,10 @@
     </row>
     <row r="583" spans="2:15">
       <c r="B583" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L583" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M583" s="7"/>
       <c r="N583" s="7"/>
@@ -20713,10 +21206,16 @@
     </row>
     <row r="584" spans="2:15">
       <c r="B584" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="C584" t="s">
+        <v>407</v>
+      </c>
+      <c r="D584" t="s">
+        <v>408</v>
       </c>
       <c r="L584" s="6" t="s">
-        <v>160</v>
+        <v>443</v>
       </c>
       <c r="M584" s="7"/>
       <c r="N584" s="7"/>
@@ -20724,16 +21223,10 @@
     </row>
     <row r="585" spans="2:15">
       <c r="B585" t="s">
-        <v>107</v>
-      </c>
-      <c r="C585" t="s">
-        <v>407</v>
-      </c>
-      <c r="D585" t="s">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="L585" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M585" s="7"/>
       <c r="N585" s="7"/>
@@ -20741,10 +21234,10 @@
     </row>
     <row r="586" spans="2:15">
       <c r="B586" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L586" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M586" s="7"/>
       <c r="N586" s="7"/>
@@ -20752,10 +21245,10 @@
     </row>
     <row r="587" spans="2:15">
       <c r="B587" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L587" s="6" t="s">
-        <v>445</v>
+        <v>164</v>
       </c>
       <c r="M587" s="7"/>
       <c r="N587" s="7"/>
@@ -20763,10 +21256,10 @@
     </row>
     <row r="588" spans="2:15">
       <c r="B588" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L588" s="6" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="M588" s="7"/>
       <c r="N588" s="7"/>
@@ -20774,10 +21267,10 @@
     </row>
     <row r="589" spans="2:15">
       <c r="B589" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="L589" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M589" s="7"/>
       <c r="N589" s="7"/>
@@ -20785,10 +21278,10 @@
     </row>
     <row r="590" spans="2:15">
       <c r="B590" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L590" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M590" s="7"/>
       <c r="N590" s="7"/>
@@ -20796,10 +21289,10 @@
     </row>
     <row r="591" spans="2:15">
       <c r="B591" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="L591" s="6" t="s">
-        <v>165</v>
+        <v>446</v>
       </c>
       <c r="M591" s="7"/>
       <c r="N591" s="7"/>
@@ -20807,10 +21300,10 @@
     </row>
     <row r="592" spans="2:15">
       <c r="B592" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="L592" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M592" s="7"/>
       <c r="N592" s="7"/>
@@ -20818,10 +21311,10 @@
     </row>
     <row r="593" spans="2:15">
       <c r="B593" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L593" s="6" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="M593" s="7"/>
       <c r="N593" s="7"/>
@@ -20829,10 +21322,10 @@
     </row>
     <row r="594" spans="2:15">
       <c r="B594" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L594" s="6" t="s">
-        <v>447</v>
+        <v>164</v>
       </c>
       <c r="M594" s="7"/>
       <c r="N594" s="7"/>
@@ -20840,10 +21333,10 @@
     </row>
     <row r="595" spans="2:15">
       <c r="B595" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L595" s="6" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="M595" s="7"/>
       <c r="N595" s="7"/>
@@ -20851,10 +21344,10 @@
     </row>
     <row r="596" spans="2:15">
       <c r="B596" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L596" s="6" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M596" s="7"/>
       <c r="N596" s="7"/>
@@ -20862,98 +21355,87 @@
     </row>
     <row r="597" spans="2:15">
       <c r="B597" t="s">
-        <v>121</v>
-      </c>
-      <c r="L597" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="M597" s="7"/>
-      <c r="N597" s="7"/>
-      <c r="O597" s="8"/>
-    </row>
-    <row r="598" spans="2:15">
-      <c r="B598" t="s">
         <v>122</v>
       </c>
-      <c r="L598" s="9" t="s">
+      <c r="L597" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="M598" s="10"/>
-      <c r="N598" s="10"/>
-      <c r="O598" s="11"/>
+      <c r="M597" s="10"/>
+      <c r="N597" s="10"/>
+      <c r="O597" s="11"/>
+    </row>
+    <row r="599" spans="2:15">
+      <c r="B599" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="600" spans="2:15">
       <c r="B600" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="601" spans="2:15">
       <c r="B601" t="s">
-        <v>124</v>
+        <v>422</v>
       </c>
     </row>
     <row r="602" spans="2:15">
       <c r="B602" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="603" spans="2:15">
-      <c r="B603" t="s">
         <v>415</v>
+      </c>
+    </row>
+    <row r="604" spans="2:15">
+      <c r="B604" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="605" spans="2:15">
       <c r="B605" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="606" spans="2:15">
-      <c r="B606" t="s">
         <v>416</v>
+      </c>
+    </row>
+    <row r="607" spans="2:15">
+      <c r="B607" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="608" spans="2:15">
       <c r="B608" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="609" spans="2:2">
       <c r="B609" t="s">
-        <v>417</v>
+        <v>125</v>
       </c>
     </row>
     <row r="610" spans="2:2">
       <c r="B610" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="611" spans="2:2">
-      <c r="B611" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="612" spans="2:2">
-      <c r="B612" s="24" t="s">
+      <c r="B611" s="24" t="s">
         <v>129</v>
       </c>
     </row>
+    <row r="613" spans="2:2">
+      <c r="B613" s="75" t="s">
+        <v>498</v>
+      </c>
+    </row>
     <row r="614" spans="2:2">
-      <c r="B614" s="75" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="615" spans="2:2">
-      <c r="B615" t="s">
+      <c r="B614" t="s">
         <v>425</v>
+      </c>
+    </row>
+    <row r="616" spans="2:2">
+      <c r="B616" s="75" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="617" spans="2:2">
       <c r="B617" s="75" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="618" spans="2:2">
-      <c r="B618" s="75" t="s">
         <v>147</v>
       </c>
     </row>
@@ -20968,8 +21450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:M271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D268" sqref="D268"/>
+    <sheetView topLeftCell="A120" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B264" sqref="B264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/pandas.xlsx
+++ b/pandas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="672">
   <si>
     <t>Series</t>
   </si>
@@ -14044,6 +14044,1260 @@
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pairs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = [("lol", 2), ("lol", 3), ("bol", 1)]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   key  value</t>
+  </si>
+  <si>
+    <t>0  lol      2</t>
+  </si>
+  <si>
+    <t>1  lol      3</t>
+  </si>
+  <si>
+    <t>2  bol      1</t>
+  </si>
+  <si>
+    <t>Create df from list of tuples</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = pd.DataFrame(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pairs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"])        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = pd.DataFrame(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pairs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"]).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">("key")       </t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;pandas.core.groupby.generic.DataFrameGroupBy object at 0x0000000001E284C0&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = pd.DataFrame(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pairs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"]).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>")["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"]       </t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;pandas.core.groupby.generic.SeriesGroupBy object at 0x000000000B2FBB20&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = pd.DataFrame(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pairs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"]).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>")["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">()       </t>
+    </r>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>bol    1</t>
+  </si>
+  <si>
+    <t>lol    5</t>
+  </si>
+  <si>
+    <t>Name: value, dtype: int64</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = pd.DataFrame(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pairs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"]).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>")["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>().</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to_dict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">()     </t>
+    </r>
+  </si>
+  <si>
+    <t>{'bol': 1, 'lol': 5}</t>
+  </si>
+  <si>
+    <t>Tells pandas: “Group the rows of the DataFrame by the column named key.”</t>
+  </si>
+  <si>
+    <t>So all rows with the same key (e.g., "lol") get grouped together</t>
+  </si>
+  <si>
+    <t>After grouping by "key"</t>
+  </si>
+  <si>
+    <t>group "lol" -&gt; rows [0, 1]</t>
+  </si>
+  <si>
+    <t>group "bol" -&gt; row [2]</t>
+  </si>
+  <si>
+    <r>
+      <t>1. .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From each group, select only the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value column</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0  lol      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1  lol      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2  bol      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>So now we’re just focusing on the numbers [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>] for "lol", and [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>] for "bol"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. ["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>For each group, sum up the value column</t>
+  </si>
+  <si>
+    <t>"lol" → 2 + 3 = 5</t>
+  </si>
+  <si>
+    <t>"bol" → 1</t>
+  </si>
+  <si>
+    <t>Result becomes a Series:</t>
+  </si>
+  <si>
+    <r>
+      <t>4. .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to_dict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>Convert that Series into a Python dictionary.</t>
+  </si>
+  <si>
+    <t>Final result:</t>
+  </si>
+  <si>
+    <t>Step by step explanation:</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        axis=1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    df_undeliver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">["Недоставено"] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df_undeliver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
     </r>
   </si>
 </sst>
@@ -14051,12 +15305,28 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="44">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14581,10 +15851,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -14594,121 +15864,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14717,13 +15991,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFA626A4"/>
+      <color rgb="FFA47A20"/>
+      <color rgb="FF64AF8C"/>
       <color rgb="FF179A77"/>
-      <color rgb="FFA626A4"/>
+      <color rgb="FFFF33CC"/>
       <color rgb="FFDA7BB9"/>
-      <color rgb="FF64AF8C"/>
-      <color rgb="FFA47A20"/>
       <color rgb="FF1E7D6A"/>
-      <color rgb="FFFF33CC"/>
       <color rgb="FF005F6A"/>
     </mruColors>
   </colors>
@@ -17048,6 +18322,382 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="3588544" y="49860994"/>
+          <a:ext cx="685800" cy="557212"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>223839</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>14289</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4276726" y="49601438"/>
+          <a:ext cx="1438275" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>500064</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>195264</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4541045" y="50018157"/>
+          <a:ext cx="1366837" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>109539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>128589</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4991100" y="50468214"/>
+          <a:ext cx="1285875" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>128589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>157164</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="5581650" y="51435001"/>
+          <a:ext cx="571500" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>1588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="53749575"/>
+          <a:ext cx="1219200" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>538163</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2752725" y="55740300"/>
+          <a:ext cx="833438" cy="300038"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>115888</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2062163" y="56759475"/>
+          <a:ext cx="1566862" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17338,8 +18988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A533" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E546" sqref="E546"/>
+    <sheetView topLeftCell="A546" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J548" sqref="J548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21448,10 +23098,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:M271"/>
+  <dimension ref="A3:M323"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B264" sqref="B264"/>
+    <sheetView tabSelected="1" topLeftCell="A309" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G320" sqref="G320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23924,57 +25574,353 @@
         <v>508</v>
       </c>
     </row>
-    <row r="258" spans="2:5">
+    <row r="258" spans="2:6">
       <c r="C258" s="6" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="259" spans="2:5">
+    <row r="259" spans="2:6">
       <c r="C259" s="6" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="261" spans="2:5">
+    <row r="261" spans="2:6">
       <c r="C261" s="83" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="262" spans="2:5">
+    <row r="262" spans="2:6">
       <c r="C262" s="83"/>
     </row>
-    <row r="263" spans="2:5">
+    <row r="263" spans="2:6">
       <c r="C263" s="83" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="264" spans="2:5">
+    <row r="264" spans="2:6">
       <c r="C264" s="83"/>
     </row>
-    <row r="265" spans="2:5">
+    <row r="265" spans="2:6">
       <c r="C265" s="83" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="266" spans="2:5">
+    <row r="266" spans="2:6">
       <c r="C266" s="83"/>
       <c r="D266" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="267" spans="2:5">
+    <row r="267" spans="2:6">
       <c r="C267" s="83"/>
       <c r="E267" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6">
+      <c r="F268" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="269" spans="2:5">
+    <row r="269" spans="2:6">
       <c r="B269" s="23" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="271" spans="2:5">
+    <row r="271" spans="2:6">
       <c r="C271" s="83" t="s">
         <v>512</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13">
+      <c r="H273" s="70" t="s">
+        <v>630</v>
+      </c>
+      <c r="J273" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13">
+      <c r="A274" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="H274" s="71" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13">
+      <c r="A275" s="23"/>
+      <c r="H275" s="71" t="s">
+        <v>632</v>
+      </c>
+      <c r="J275" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13">
+      <c r="B276" s="101" t="s">
+        <v>621</v>
+      </c>
+      <c r="C276" s="7"/>
+      <c r="D276" s="7"/>
+      <c r="E276" s="7"/>
+      <c r="F276" s="7"/>
+      <c r="H276" s="102" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13">
+      <c r="B277" s="7"/>
+      <c r="C277" s="7"/>
+      <c r="D277" s="7"/>
+      <c r="E277" s="7"/>
+      <c r="F277" s="7"/>
+    </row>
+    <row r="278" spans="1:13">
+      <c r="B278" s="101" t="s">
+        <v>629</v>
+      </c>
+      <c r="C278" s="7"/>
+      <c r="D278" s="7"/>
+      <c r="E278" s="7"/>
+      <c r="F278" s="7"/>
+      <c r="K278" s="67" t="s">
+        <v>641</v>
+      </c>
+      <c r="L278" s="88"/>
+      <c r="M278" s="53"/>
+    </row>
+    <row r="279" spans="1:13">
+      <c r="B279" s="7"/>
+      <c r="C279" s="7"/>
+      <c r="D279" s="7"/>
+      <c r="E279" s="7"/>
+      <c r="F279" s="7"/>
+      <c r="K279" s="66" t="s">
+        <v>642</v>
+      </c>
+      <c r="L279" s="89"/>
+      <c r="M279" s="90"/>
+    </row>
+    <row r="280" spans="1:13">
+      <c r="B280" s="101" t="s">
+        <v>635</v>
+      </c>
+      <c r="C280" s="7"/>
+      <c r="D280" s="7"/>
+      <c r="E280" s="7"/>
+      <c r="F280" s="7"/>
+      <c r="K280" s="66" t="s">
+        <v>643</v>
+      </c>
+      <c r="L280" s="89"/>
+      <c r="M280" s="90"/>
+    </row>
+    <row r="281" spans="1:13">
+      <c r="B281" s="7"/>
+      <c r="C281" s="7"/>
+      <c r="D281" s="7"/>
+      <c r="E281" s="7"/>
+      <c r="F281" s="7"/>
+      <c r="K281" s="91" t="s">
+        <v>644</v>
+      </c>
+      <c r="L281" s="92"/>
+      <c r="M281" s="93"/>
+    </row>
+    <row r="282" spans="1:13">
+      <c r="B282" s="101" t="s">
+        <v>636</v>
+      </c>
+      <c r="C282" s="7"/>
+      <c r="D282" s="7"/>
+      <c r="E282" s="7"/>
+      <c r="F282" s="7"/>
+    </row>
+    <row r="284" spans="1:13">
+      <c r="B284" s="101" t="s">
+        <v>638</v>
+      </c>
+      <c r="K284" s="103" t="s">
+        <v>646</v>
+      </c>
+      <c r="L284" s="15"/>
+    </row>
+    <row r="286" spans="1:13">
+      <c r="B286" s="101" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13">
+      <c r="B288" s="101" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7">
+      <c r="B291" s="23" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="292" spans="2:7">
+      <c r="B292" t="s">
+        <v>652</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7">
+      <c r="C293" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7">
+      <c r="C294" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="296" spans="2:7">
+      <c r="E296" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7">
+      <c r="C297" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="298" spans="2:7">
+      <c r="C298" t="s">
+        <v>654</v>
+      </c>
+      <c r="G298" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="299" spans="2:7">
+      <c r="C299" t="s">
+        <v>655</v>
+      </c>
+      <c r="G299" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7">
+      <c r="C300" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="302" spans="2:7">
+      <c r="B302" t="s">
+        <v>658</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="303" spans="2:7">
+      <c r="C303" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="304" spans="2:7">
+      <c r="C304" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
+      <c r="B306" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
+      <c r="C307" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
+      <c r="C308" t="s">
+        <v>661</v>
+      </c>
+      <c r="G308" s="67" t="s">
+        <v>641</v>
+      </c>
+      <c r="H308" s="4"/>
+      <c r="I308" s="5"/>
+    </row>
+    <row r="309" spans="1:9">
+      <c r="C309" t="s">
+        <v>662</v>
+      </c>
+      <c r="G309" s="66" t="s">
+        <v>642</v>
+      </c>
+      <c r="H309" s="7"/>
+      <c r="I309" s="8"/>
+    </row>
+    <row r="310" spans="1:9">
+      <c r="G310" s="66" t="s">
+        <v>643</v>
+      </c>
+      <c r="H310" s="7"/>
+      <c r="I310" s="8"/>
+    </row>
+    <row r="311" spans="1:9">
+      <c r="C311" t="s">
+        <v>663</v>
+      </c>
+      <c r="G311" s="91" t="s">
+        <v>644</v>
+      </c>
+      <c r="H311" s="10"/>
+      <c r="I311" s="11"/>
+    </row>
+    <row r="313" spans="1:9">
+      <c r="B313" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
+      <c r="C314" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
+      <c r="C315" t="s">
+        <v>666</v>
+      </c>
+      <c r="G315" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
+      <c r="A318" s="104" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
+      <c r="B319" s="104" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
+      <c r="B320" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2">
+      <c r="B321" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>

--- a/pandas.xlsx
+++ b/pandas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="711">
   <si>
     <t>Series</t>
   </si>
@@ -15299,18 +15299,1546 @@
       </rPr>
       <t>(</t>
     </r>
+  </si>
+  <si>
+    <t># Parse daily sales into dictionary {art_number: sold_qty}</t>
+  </si>
+  <si>
+    <t>1208050 - 1 бр</t>
+  </si>
+  <si>
+    <t>1506600 - 5 бр</t>
+  </si>
+  <si>
+    <t># pattern</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>try</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>except</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ValueError</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>daily_quantity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>strip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>().</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>splitlines</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>():  # ['1;2CDS253001R0164;5', '2;V6K6040;120', '3;V6K6060;120']</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        _, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>art_num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>split</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(";")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(qty)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">daily_sales_dict </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= {}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>daily_sales_dict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>art_num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>daily_sales_dict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>art_num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 0) + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">continue </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> # skip malformed lines</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = pd.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read_excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(r"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C:\Users\user\Desktop\Documents\work\merged_sklad 07.10.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>usecols</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">="A,B,E", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=None)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sold_qty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>daily_sales_dict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>artical_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), 0)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sklad_quantity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sold_qty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pattern_file </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pattern</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> daily_sales </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> daily_quantity</t>
+    </r>
+  </si>
+  <si>
+    <t>exact_quantity.py  3.10.25</t>
+  </si>
+  <si>
+    <t>{'1208060': 1, '1506600': 5}</t>
+  </si>
+  <si>
+    <t>1;1208060;1</t>
+  </si>
+  <si>
+    <t>2;1506600;5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">daily_quantity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= """</t>
+    </r>
+  </si>
+  <si>
+    <t>adding pickle file for better performance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = ["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numbe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stock_quantity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read_pickle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(r"C:\Users\user\Desktop\Documents\work\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>merged_sklad.pkl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>")</t>
+    </r>
+  </si>
+  <si>
+    <t># load_database.py</t>
+  </si>
+  <si>
+    <t># --- Paths ---</t>
+  </si>
+  <si>
+    <t>excel_path = Path(r"C:\Users\user\Desktop\Documents\work\merged_sklad 07.10.xlsx")</t>
+  </si>
+  <si>
+    <t>pickle_path = Path(r"C:\Users\user\Desktop\Documents\work\merged_sklad.pkl")</t>
+  </si>
+  <si>
+    <t># --- Read Excel once ---</t>
+  </si>
+  <si>
+    <t># --- Save as .pkl for future use ---</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pandas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pathlib </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Path</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("?? Reading Excel file... This may take a moment.")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read_excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(excel_path, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>usecols</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">="A,B,E", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=None)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to_pickle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(pickle_path)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = ["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stock_quantity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(f"? DataFrame saved successfully at:\n{pickle_path}")</t>
+    </r>
+  </si>
+  <si>
+    <t># exact_quantity.py</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="46">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -15662,12 +17190,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -15851,10 +17385,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -15864,124 +17398,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -15991,9 +17531,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="FFA626A4"/>
       <color rgb="FFA47A20"/>
       <color rgb="FF64AF8C"/>
+      <color rgb="FFA626A4"/>
       <color rgb="FF179A77"/>
       <color rgb="FFFF33CC"/>
       <color rgb="FFDA7BB9"/>
@@ -18082,6 +19622,194 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>269632</xdr:colOff>
+      <xdr:row>660</xdr:row>
+      <xdr:rowOff>17586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>29311</xdr:colOff>
+      <xdr:row>660</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="879232" y="84713886"/>
+          <a:ext cx="369279" cy="134815"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114822</xdr:colOff>
+      <xdr:row>697</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>120869</xdr:colOff>
+      <xdr:row>698</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Arrow Connector 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="397779" y="92123011"/>
+          <a:ext cx="659333" cy="6047"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>637</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>637</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Arrow Connector 50"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1833563" y="115385851"/>
+          <a:ext cx="2424112" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>223044</xdr:colOff>
+      <xdr:row>638</xdr:row>
+      <xdr:rowOff>794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>224632</xdr:colOff>
+      <xdr:row>638</xdr:row>
+      <xdr:rowOff>148432</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="759619" y="115535869"/>
+          <a:ext cx="147638" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18986,10 +20714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R617"/>
+  <dimension ref="A1:R823"/>
   <sheetViews>
-    <sheetView topLeftCell="A546" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J548" sqref="J548"/>
+    <sheetView tabSelected="1" topLeftCell="A795" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A802" sqref="A802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23054,39 +24782,897 @@
         <v>417</v>
       </c>
     </row>
-    <row r="609" spans="2:2">
+    <row r="609" spans="1:12">
       <c r="B609" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="610" spans="2:2">
+    <row r="610" spans="1:12">
       <c r="B610" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="611" spans="2:2">
+    <row r="611" spans="1:12">
       <c r="B611" s="24" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="613" spans="2:2">
+    <row r="613" spans="1:12">
       <c r="B613" s="75" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="614" spans="2:2">
+    <row r="614" spans="1:12">
       <c r="B614" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="616" spans="2:2">
+    <row r="616" spans="1:12">
       <c r="B616" s="75" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="617" spans="2:2">
+    <row r="617" spans="1:12">
       <c r="B617" s="75" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="620" spans="1:12">
+      <c r="A620" s="23" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="622" spans="1:12">
+      <c r="B622" s="75" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="623" spans="1:12">
+      <c r="B623" s="97" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="624" spans="1:12">
+      <c r="B624" s="106" t="s">
+        <v>687</v>
+      </c>
+      <c r="L624" s="108"/>
+    </row>
+    <row r="625" spans="2:12">
+      <c r="B625" s="106" t="s">
+        <v>688</v>
+      </c>
+      <c r="L625" s="108"/>
+    </row>
+    <row r="626" spans="2:12">
+      <c r="B626" s="97"/>
+    </row>
+    <row r="628" spans="2:12">
+      <c r="B628" s="110" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="629" spans="2:12">
+      <c r="B629" s="84" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="630" spans="2:12">
+      <c r="B630" s="84"/>
+    </row>
+    <row r="631" spans="2:12">
+      <c r="B631" s="84" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="632" spans="2:12">
+      <c r="B632" s="75" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="633" spans="2:12">
+      <c r="B633" s="75"/>
+      <c r="K633" s="109" t="s">
+        <v>693</v>
+      </c>
+      <c r="L633" s="5"/>
+    </row>
+    <row r="634" spans="2:12">
+      <c r="B634" s="84" t="s">
+        <v>520</v>
+      </c>
+      <c r="K634" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="L634" s="8"/>
+    </row>
+    <row r="635" spans="2:12">
+      <c r="B635" s="84" t="s">
+        <v>521</v>
+      </c>
+      <c r="K635" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="L635" s="8"/>
+    </row>
+    <row r="636" spans="2:12">
+      <c r="B636" s="84"/>
+      <c r="K636" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="L636" s="11"/>
+    </row>
+    <row r="637" spans="2:12">
+      <c r="B637" s="106" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="638" spans="2:12">
+      <c r="B638" s="106" t="s">
+        <v>681</v>
+      </c>
+      <c r="H638" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="640" spans="2:12">
+      <c r="B640" s="109" t="s">
+        <v>678</v>
+      </c>
+      <c r="C640" s="4"/>
+      <c r="D640" s="4"/>
+      <c r="E640" s="4"/>
+      <c r="F640" s="4"/>
+      <c r="G640" s="4"/>
+      <c r="H640" s="5"/>
+      <c r="L640" s="108"/>
+    </row>
+    <row r="641" spans="2:12">
+      <c r="B641" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="C641" s="7"/>
+      <c r="D641" s="7"/>
+      <c r="E641" s="7"/>
+      <c r="F641" s="7"/>
+      <c r="G641" s="7"/>
+      <c r="H641" s="8"/>
+      <c r="L641" s="108"/>
+    </row>
+    <row r="642" spans="2:12">
+      <c r="B642" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="C642" s="7"/>
+      <c r="D642" s="7"/>
+      <c r="E642" s="7"/>
+      <c r="F642" s="7"/>
+      <c r="G642" s="7"/>
+      <c r="H642" s="8"/>
+      <c r="L642" s="108"/>
+    </row>
+    <row r="643" spans="2:12">
+      <c r="B643" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="C643" s="7"/>
+      <c r="D643" s="7"/>
+      <c r="E643" s="7"/>
+      <c r="F643" s="7"/>
+      <c r="G643" s="7"/>
+      <c r="H643" s="8"/>
+      <c r="L643" s="108"/>
+    </row>
+    <row r="644" spans="2:12">
+      <c r="B644" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="C644" s="7"/>
+      <c r="D644" s="7"/>
+      <c r="E644" s="7"/>
+      <c r="F644" s="7"/>
+      <c r="G644" s="7"/>
+      <c r="H644" s="8"/>
+      <c r="L644" s="108"/>
+    </row>
+    <row r="645" spans="2:12">
+      <c r="B645" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="C645" s="7"/>
+      <c r="D645" s="7"/>
+      <c r="E645" s="7"/>
+      <c r="F645" s="7"/>
+      <c r="G645" s="7"/>
+      <c r="H645" s="8"/>
+      <c r="L645" s="108"/>
+    </row>
+    <row r="646" spans="2:12">
+      <c r="B646" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="C646" s="10"/>
+      <c r="D646" s="10"/>
+      <c r="E646" s="10"/>
+      <c r="F646" s="10"/>
+      <c r="G646" s="10"/>
+      <c r="H646" s="11"/>
+      <c r="L646" s="108"/>
+    </row>
+    <row r="649" spans="2:12">
+      <c r="B649" s="75" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="650" spans="2:12">
+      <c r="B650" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="651" spans="2:12">
+      <c r="B651" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="652" spans="2:12">
+      <c r="B652" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="654" spans="2:12">
+      <c r="B654" s="105" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="656" spans="2:12">
+      <c r="B656" s="75" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="658" spans="2:12">
+      <c r="B658" s="75" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="660" spans="2:12">
+      <c r="B660" s="84" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="661" spans="2:12">
+      <c r="C661" s="24"/>
+    </row>
+    <row r="662" spans="2:12">
+      <c r="B662" s="87" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="663" spans="2:12">
+      <c r="B663" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="664" spans="2:12">
+      <c r="B664" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="665" spans="2:12">
+      <c r="B665" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="666" spans="2:12">
+      <c r="B666" s="6"/>
+    </row>
+    <row r="667" spans="2:12">
+      <c r="B667" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="668" spans="2:12">
+      <c r="B668" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="669" spans="2:12">
+      <c r="B669" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="670" spans="2:12">
+      <c r="B670" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="L670" s="107"/>
+    </row>
+    <row r="671" spans="2:12">
+      <c r="B671" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="L671" s="107"/>
+    </row>
+    <row r="672" spans="2:12">
+      <c r="B672" s="6"/>
+    </row>
+    <row r="673" spans="2:2">
+      <c r="B673" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="674" spans="2:2">
+      <c r="B674" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="675" spans="2:2">
+      <c r="B675" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="676" spans="2:2">
+      <c r="B676" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="677" spans="2:2">
+      <c r="B677" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="678" spans="2:2">
+      <c r="B678" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="679" spans="2:2">
+      <c r="B679" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="680" spans="2:2">
+      <c r="B680" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="681" spans="2:2">
+      <c r="B681" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="682" spans="2:2">
+      <c r="B682" s="9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="685" spans="2:2">
+      <c r="B685" s="97" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="686" spans="2:2">
+      <c r="B686" s="75" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="688" spans="2:2">
+      <c r="B688" s="78" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="689" spans="2:2">
+      <c r="B689" s="75" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="691" spans="2:2">
+      <c r="B691" s="75"/>
+    </row>
+    <row r="692" spans="2:2">
+      <c r="B692" s="78" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="693" spans="2:2">
+      <c r="B693" s="75" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="695" spans="2:2">
+      <c r="B695" s="84" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="697" spans="2:2">
+      <c r="B697" s="84" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="698" spans="2:2">
+      <c r="B698" s="75"/>
+    </row>
+    <row r="699" spans="2:2">
+      <c r="B699" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="700" spans="2:2">
+      <c r="B700" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="701" spans="2:2">
+      <c r="B701" s="6"/>
+    </row>
+    <row r="702" spans="2:2">
+      <c r="B702" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="703" spans="2:2">
+      <c r="B703" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="704" spans="2:2">
+      <c r="B704" s="6"/>
+    </row>
+    <row r="705" spans="2:2">
+      <c r="B705" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="706" spans="2:2">
+      <c r="B706" s="94" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="709" spans="2:2">
+      <c r="B709" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="710" spans="2:2">
+      <c r="B710" s="75" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="711" spans="2:2">
+      <c r="B711" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="712" spans="2:2">
+      <c r="B712" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="713" spans="2:2">
+      <c r="B713" s="75" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="714" spans="2:2">
+      <c r="B714" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="716" spans="2:2">
+      <c r="B716" s="78" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="717" spans="2:2">
+      <c r="B717" s="84" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="718" spans="2:2">
+      <c r="B718" s="75" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="721" spans="2:2">
+      <c r="B721" s="84" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="722" spans="2:2">
+      <c r="B722" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="725" spans="2:2">
+      <c r="B725" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="726" spans="2:2">
+      <c r="B726" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="727" spans="2:2">
+      <c r="B727" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="728" spans="2:2">
+      <c r="B728" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="729" spans="2:2">
+      <c r="B729" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="730" spans="2:2">
+      <c r="B730" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="732" spans="2:2">
+      <c r="B732" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="733" spans="2:2">
+      <c r="B733" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="736" spans="2:2">
+      <c r="B736" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="737" spans="2:2">
+      <c r="B737" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="739" spans="2:2">
+      <c r="B739" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="740" spans="2:2">
+      <c r="B740" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="743" spans="2:2">
+      <c r="B743" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="744" spans="2:2">
+      <c r="B744" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="745" spans="2:2">
+      <c r="B745" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="747" spans="2:2">
+      <c r="B747" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="748" spans="2:2">
+      <c r="B748" s="75" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="749" spans="2:2">
+      <c r="B749" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="752" spans="2:2">
+      <c r="B752" s="32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="753" spans="2:2">
+      <c r="B753" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="754" spans="2:2">
+      <c r="B754" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="755" spans="2:2">
+      <c r="B755" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="756" spans="2:2">
+      <c r="B756" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="757" spans="2:2">
+      <c r="B757" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="758" spans="2:2">
+      <c r="B758" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="759" spans="2:2">
+      <c r="B759" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="760" spans="2:2">
+      <c r="B760" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="761" spans="2:2">
+      <c r="B761" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="762" spans="2:2">
+      <c r="B762" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="763" spans="2:2">
+      <c r="B763" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="764" spans="2:2">
+      <c r="B764" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="765" spans="2:2">
+      <c r="B765" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="766" spans="2:2">
+      <c r="B766" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="767" spans="2:2">
+      <c r="B767" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="768" spans="2:2">
+      <c r="B768" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="769" spans="2:2">
+      <c r="B769" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="770" spans="2:2">
+      <c r="B770" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="771" spans="2:2">
+      <c r="B771" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="772" spans="2:2">
+      <c r="B772" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="773" spans="2:2">
+      <c r="B773" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="774" spans="2:2">
+      <c r="B774" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="775" spans="2:2">
+      <c r="B775" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="776" spans="2:2">
+      <c r="B776" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="777" spans="2:2">
+      <c r="B777" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="778" spans="2:2">
+      <c r="B778" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="779" spans="2:2">
+      <c r="B779" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="781" spans="2:2">
+      <c r="B781" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="782" spans="2:2">
+      <c r="B782" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="783" spans="2:2">
+      <c r="B783" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="784" spans="2:2">
+      <c r="B784" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="786" spans="2:2">
+      <c r="B786" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="787" spans="2:2">
+      <c r="B787" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="789" spans="2:2">
+      <c r="B789" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="790" spans="2:2">
+      <c r="B790" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="791" spans="2:2">
+      <c r="B791" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="792" spans="2:2">
+      <c r="B792" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="793" spans="2:2">
+      <c r="B793" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="795" spans="2:2">
+      <c r="B795" s="75" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="796" spans="2:2">
+      <c r="B796" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="798" spans="2:2">
+      <c r="B798" s="75" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="799" spans="2:2">
+      <c r="B799" s="75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" s="23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" s="23"/>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="B804" s="23" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="B805" s="110" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="B806" s="110" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="B808" s="23" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="B809" s="110" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="B810" s="110" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="B812" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="B813" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="B814" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="B816" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="817" spans="2:2">
+      <c r="B817" s="110" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="818" spans="2:2">
+      <c r="B818" s="110" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="819" spans="2:2">
+      <c r="B819" s="110" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="821" spans="2:2">
+      <c r="B821" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="822" spans="2:2">
+      <c r="B822" s="110" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="823" spans="2:2">
+      <c r="B823" s="110" t="s">
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -23100,8 +25686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:M323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G320" sqref="G320"/>
+    <sheetView topLeftCell="A318" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C320" sqref="C320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/pandas.xlsx
+++ b/pandas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="736">
   <si>
     <t>Series</t>
   </si>
@@ -16811,18 +16811,1287 @@
   </si>
   <si>
     <t># exact_quantity.py</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/exact_quantity_report.html", "w", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>encoding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">="utf-8") as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pairs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Sikato", 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ("Boce", 1), ("Sikato", 3)]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.DataFrame(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pairs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"]).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>")["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>().</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to_dict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>{'Boce': 1, 'Sikato': 5}</t>
+  </si>
+  <si>
+    <t>print(result)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      key  value</t>
+  </si>
+  <si>
+    <t>0  Sikato      2</t>
+  </si>
+  <si>
+    <t>1    Boce      1</t>
+  </si>
+  <si>
+    <t>2  Sikato      3</t>
+  </si>
+  <si>
+    <t>Boce      1</t>
+  </si>
+  <si>
+    <t>Sikato    5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.DataFrame(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pairs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"]).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>")["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dict</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">df </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>series</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.DataFrame(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pairs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"])</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>double_value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lambda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x: x*2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">      key  value  double_value</t>
+  </si>
+  <si>
+    <t>0  Sikato      2             4</t>
+  </si>
+  <si>
+    <t>1    Boce      1             2</t>
+  </si>
+  <si>
+    <t>2  Sikato      3             6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="48">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -17385,10 +18654,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -17398,131 +18667,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17531,12 +18807,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF64AF8C"/>
       <color rgb="FFA47A20"/>
-      <color rgb="FF64AF8C"/>
+      <color rgb="FF179A77"/>
+      <color rgb="FFDA7BB9"/>
       <color rgb="FFA626A4"/>
-      <color rgb="FF179A77"/>
       <color rgb="FFFF33CC"/>
-      <color rgb="FFDA7BB9"/>
       <color rgb="FF1E7D6A"/>
       <color rgb="FF005F6A"/>
     </mruColors>
@@ -20426,6 +21702,100 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28074</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>180474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>597568</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>108284</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247274" y="60875779"/>
+          <a:ext cx="1179094" cy="481263"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>421105</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>88231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>437147</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>89819</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1640305" y="59307663"/>
+          <a:ext cx="625642" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20716,8 +22086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R823"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A795" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A802" sqref="A802"/>
+    <sheetView topLeftCell="A786" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E801" sqref="E801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25568,8 +26938,8 @@
       </c>
     </row>
     <row r="795" spans="2:2">
-      <c r="B795" s="75" t="s">
-        <v>498</v>
+      <c r="B795" s="111" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="796" spans="2:2">
@@ -25684,10 +27054,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:M323"/>
+  <dimension ref="A3:M360"/>
   <sheetViews>
-    <sheetView topLeftCell="A318" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C320" sqref="C320"/>
+    <sheetView tabSelected="1" topLeftCell="A316" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F325" sqref="F325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28485,28 +29855,308 @@
       </c>
     </row>
     <row r="319" spans="1:9">
-      <c r="B319" s="104" t="s">
+      <c r="A319" s="104"/>
+    </row>
+    <row r="321" spans="2:9">
+      <c r="B321" t="s">
+        <v>717</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="322" spans="2:9">
+      <c r="B322" t="s">
+        <v>718</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="323" spans="2:9">
+      <c r="B323" t="s">
+        <v>719</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="324" spans="2:9">
+      <c r="B324" t="s">
+        <v>720</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="327" spans="2:9">
+      <c r="B327" s="113" t="s">
+        <v>621</v>
+      </c>
+      <c r="C327" s="4"/>
+      <c r="D327" s="4"/>
+      <c r="E327" s="4"/>
+      <c r="F327" s="5"/>
+    </row>
+    <row r="328" spans="2:9">
+      <c r="B328" s="114" t="s">
+        <v>713</v>
+      </c>
+      <c r="C328" s="7"/>
+      <c r="D328" s="7"/>
+      <c r="E328" s="7"/>
+      <c r="F328" s="8"/>
+    </row>
+    <row r="329" spans="2:9">
+      <c r="B329" s="114" t="s">
+        <v>729</v>
+      </c>
+      <c r="C329" s="7"/>
+      <c r="D329" s="7"/>
+      <c r="E329" s="7"/>
+      <c r="F329" s="8"/>
+    </row>
+    <row r="330" spans="2:9">
+      <c r="B330" s="116" t="s">
+        <v>730</v>
+      </c>
+      <c r="C330" s="7"/>
+      <c r="D330" s="7"/>
+      <c r="E330" s="7"/>
+      <c r="F330" s="8"/>
+    </row>
+    <row r="331" spans="2:9">
+      <c r="B331" s="117" t="s">
+        <v>731</v>
+      </c>
+      <c r="C331" s="10"/>
+      <c r="D331" s="10"/>
+      <c r="E331" s="10"/>
+      <c r="F331" s="11"/>
+    </row>
+    <row r="332" spans="2:9">
+      <c r="E332" s="2"/>
+    </row>
+    <row r="334" spans="2:9">
+      <c r="B334" s="115" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="320" spans="1:9">
-      <c r="B320" t="s">
+      <c r="C334" s="4"/>
+      <c r="D334" s="4"/>
+      <c r="E334" s="4"/>
+      <c r="F334" s="4"/>
+      <c r="G334" s="4"/>
+      <c r="H334" s="4"/>
+      <c r="I334" s="5"/>
+    </row>
+    <row r="335" spans="2:9">
+      <c r="B335" s="6" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="321" spans="2:2">
-      <c r="B321" t="s">
+      <c r="C335" s="7"/>
+      <c r="D335" s="7"/>
+      <c r="E335" s="7"/>
+      <c r="F335" s="7"/>
+      <c r="G335" s="7"/>
+      <c r="H335" s="7"/>
+      <c r="I335" s="8"/>
+    </row>
+    <row r="336" spans="2:9">
+      <c r="B336" s="6" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="322" spans="2:2">
-      <c r="B322" t="s">
+      <c r="C336" s="7"/>
+      <c r="D336" s="7"/>
+      <c r="E336" s="7"/>
+      <c r="F336" s="7"/>
+      <c r="G336" s="7"/>
+      <c r="H336" s="7"/>
+      <c r="I336" s="8"/>
+    </row>
+    <row r="337" spans="1:10">
+      <c r="B337" s="6" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="323" spans="2:2">
-      <c r="B323" t="s">
+      <c r="C337" s="7"/>
+      <c r="D337" s="7"/>
+      <c r="E337" s="7"/>
+      <c r="F337" s="7"/>
+      <c r="G337" s="7"/>
+      <c r="H337" s="7"/>
+      <c r="I337" s="8"/>
+    </row>
+    <row r="338" spans="1:10">
+      <c r="B338" s="9" t="s">
         <v>412</v>
+      </c>
+      <c r="C338" s="10"/>
+      <c r="D338" s="10"/>
+      <c r="E338" s="10"/>
+      <c r="F338" s="10"/>
+      <c r="G338" s="10"/>
+      <c r="H338" s="10"/>
+      <c r="I338" s="11"/>
+    </row>
+    <row r="340" spans="1:10">
+      <c r="A340" s="112" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10">
+      <c r="B341" s="112" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10">
+      <c r="B342" s="113" t="s">
+        <v>621</v>
+      </c>
+      <c r="C342" s="4"/>
+      <c r="D342" s="4"/>
+      <c r="E342" s="4"/>
+      <c r="F342" s="4"/>
+      <c r="G342" s="4"/>
+      <c r="H342" s="4"/>
+      <c r="I342" s="4"/>
+      <c r="J342" s="5"/>
+    </row>
+    <row r="343" spans="1:10">
+      <c r="B343" s="114" t="s">
+        <v>713</v>
+      </c>
+      <c r="C343" s="7"/>
+      <c r="D343" s="7"/>
+      <c r="E343" s="7"/>
+      <c r="F343" s="7"/>
+      <c r="G343" s="7"/>
+      <c r="H343" s="7"/>
+      <c r="I343" s="7"/>
+      <c r="J343" s="8"/>
+    </row>
+    <row r="344" spans="1:10">
+      <c r="B344" s="114" t="s">
+        <v>714</v>
+      </c>
+      <c r="C344" s="7"/>
+      <c r="D344" s="7"/>
+      <c r="E344" s="7"/>
+      <c r="F344" s="7"/>
+      <c r="G344" s="7"/>
+      <c r="H344" s="7"/>
+      <c r="I344" s="7"/>
+      <c r="J344" s="8"/>
+    </row>
+    <row r="345" spans="1:10">
+      <c r="B345" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="C345" s="10"/>
+      <c r="D345" s="10"/>
+      <c r="E345" s="92" t="s">
+        <v>715</v>
+      </c>
+      <c r="F345" s="10"/>
+      <c r="G345" s="10"/>
+      <c r="H345" s="10"/>
+      <c r="I345" s="10"/>
+      <c r="J345" s="11"/>
+    </row>
+    <row r="347" spans="1:10">
+      <c r="E347" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="F347" s="5"/>
+    </row>
+    <row r="348" spans="1:10">
+      <c r="E348" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="F348" s="8"/>
+    </row>
+    <row r="349" spans="1:10">
+      <c r="E349" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="F349" s="8"/>
+    </row>
+    <row r="350" spans="1:10">
+      <c r="E350" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="F350" s="11"/>
+    </row>
+    <row r="352" spans="1:10">
+      <c r="B352" s="112" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="353" spans="2:9">
+      <c r="B353" s="113" t="s">
+        <v>621</v>
+      </c>
+      <c r="C353" s="4"/>
+      <c r="D353" s="4"/>
+      <c r="E353" s="4"/>
+      <c r="F353" s="4"/>
+      <c r="G353" s="4"/>
+      <c r="H353" s="4"/>
+      <c r="I353" s="5"/>
+    </row>
+    <row r="354" spans="2:9">
+      <c r="B354" s="114" t="s">
+        <v>713</v>
+      </c>
+      <c r="C354" s="7"/>
+      <c r="D354" s="7"/>
+      <c r="E354" s="7"/>
+      <c r="F354" s="7"/>
+      <c r="G354" s="7"/>
+      <c r="H354" s="7"/>
+      <c r="I354" s="8"/>
+    </row>
+    <row r="355" spans="2:9">
+      <c r="B355" s="114" t="s">
+        <v>723</v>
+      </c>
+      <c r="C355" s="7"/>
+      <c r="D355" s="7"/>
+      <c r="E355" s="7"/>
+      <c r="F355" s="7"/>
+      <c r="G355" s="7"/>
+      <c r="H355" s="7"/>
+      <c r="I355" s="8"/>
+    </row>
+    <row r="356" spans="2:9">
+      <c r="B356" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="C356" s="10"/>
+      <c r="D356" s="10"/>
+      <c r="E356" s="10"/>
+      <c r="F356" s="10"/>
+      <c r="G356" s="10"/>
+      <c r="H356" s="10"/>
+      <c r="I356" s="11"/>
+    </row>
+    <row r="358" spans="2:9">
+      <c r="B358" t="s">
+        <v>725</v>
+      </c>
+      <c r="D358" t="s">
+        <v>11</v>
+      </c>
+      <c r="H358" s="70" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="359" spans="2:9">
+      <c r="H359" s="71" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="360" spans="2:9">
+      <c r="H360" s="102" t="s">
+        <v>722</v>
       </c>
     </row>
   </sheetData>

--- a/pandas.xlsx
+++ b/pandas.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="basics" sheetId="2" r:id="rId2"/>
     <sheet name="numpy" sheetId="3" r:id="rId3"/>
+    <sheet name="CheetSheet" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="907">
   <si>
     <t>Series</t>
   </si>
@@ -18064,18 +18066,3748 @@
   </si>
   <si>
     <t>2  Sikato      3             6</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Sikato", "Boce", "Slavi", "Rambo", "Gogata"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>34, 33, 18, 29, 30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>experiance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14, 13, 1, 10, 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">     name  age  experiance</t>
+  </si>
+  <si>
+    <t>0  Sikato   34          14</t>
+  </si>
+  <si>
+    <t>1    Boce   33          13</t>
+  </si>
+  <si>
+    <t>2   Slavi   18           1</t>
+  </si>
+  <si>
+    <t>3   Rambo   29          10</t>
+  </si>
+  <si>
+    <t>4  Gogata   30          11</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name  age  experiance</t>
+    </r>
+  </si>
+  <si>
+    <t>Принтирай само първия ред от df</t>
+  </si>
+  <si>
+    <t>Name: 0, dtype: object</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          Sikato</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">age  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">             34</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>experiance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        14</t>
+    </r>
+  </si>
+  <si>
+    <t>Dataframe</t>
+  </si>
+  <si>
+    <t>Принтирай първи ред, колона "age"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0  Sikato   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>34</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Принтирай реда където </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = "Sikato"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Принтирай "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" където </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = "Sikato"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"] == "Sikato"]["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"])</t>
+    </r>
+  </si>
+  <si>
+    <t>0    34</t>
+  </si>
+  <si>
+    <t>Name: age, dtype: int64</t>
+  </si>
+  <si>
+    <t>Вариант 1</t>
+  </si>
+  <si>
+    <t>Вариант 2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sikato_age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.loc[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"] == "Sikato", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"].iloc[0]</t>
+    </r>
+  </si>
+  <si>
+    <t>Explanation:</t>
+  </si>
+  <si>
+    <t>df["name"] == "Sikato" → creates a boolean mask (True for the row where name is Sikato)</t>
+  </si>
+  <si>
+    <t>df.loc[..., "age"] → selects the “age” column only for that row</t>
+  </si>
+  <si>
+    <t>.iloc[0] → gets the first (and only) value from that result</t>
+  </si>
+  <si>
+    <t>&lt;class 'numpy.int64'&gt;</t>
+  </si>
+  <si>
+    <t>Вариант 3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sikato_age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>query</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> == 'Sikato'")["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"].iloc[0]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>query</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>Вариант 4</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Boce     33          13</t>
+  </si>
+  <si>
+    <t>Slavi    18           1</t>
+  </si>
+  <si>
+    <t>Rambo    29          10</t>
+  </si>
+  <si>
+    <t>Gogata   30          11</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>set_index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>set_index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.loc["Sikato", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"])</t>
+    </r>
+  </si>
+  <si>
+    <t>What is loc?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">loc is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>label-based indexer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in pandas.</t>
+    </r>
+  </si>
+  <si>
+    <t>It lets you select rows and columns by their labels — that is, by the names (not the position numbers)</t>
+  </si>
+  <si>
+    <t>Think of it as saying:</t>
+  </si>
+  <si>
+    <t>“Hey pandas, give me the rows and columns that have these names.”</t>
+  </si>
+  <si>
+    <t>Basic syntax</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.loc[rows, columns]</t>
+    </r>
+  </si>
+  <si>
+    <t>rows → label(s) of the row(s) you want</t>
+  </si>
+  <si>
+    <t>columns → label(s) of the column(s) you want</t>
+  </si>
+  <si>
+    <t>Принтирай първи ред, първа колона</t>
+  </si>
+  <si>
+    <t>Sikato</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sikato</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   34          14</t>
+    </r>
+  </si>
+  <si>
+    <t>What is iloc?</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>iloc</t>
+  </si>
+  <si>
+    <t>Type of indexing</t>
+  </si>
+  <si>
+    <t>Label-based</t>
+  </si>
+  <si>
+    <t>Position-based</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>df.loc[0, "age"]</t>
+  </si>
+  <si>
+    <t>df.iloc[0, 1]</t>
+  </si>
+  <si>
+    <t>What it means</t>
+  </si>
+  <si>
+    <t>Row #0, column #1</t>
+  </si>
+  <si>
+    <t>Row with label 0, column named "age"</t>
+  </si>
+  <si>
+    <t>Difference between loc and iloc</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <t>1. Select one row by label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">name  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        Sikato</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">               34</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">experiance </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       14</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Select one column by label</t>
+  </si>
+  <si>
+    <t>Returns the row with index 0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.loc[0])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.loc[:, "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"])</t>
+    </r>
+  </si>
+  <si>
+    <t>1    33</t>
+  </si>
+  <si>
+    <t>2    18</t>
+  </si>
+  <si>
+    <t>3    29</t>
+  </si>
+  <si>
+    <t>4    30</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1    Boce   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2   Slavi   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">           1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3   Rambo   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4  Gogata   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          11</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns the entire age column.</t>
+  </si>
+  <si>
+    <t>3. Select a specific cell</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loc[0, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'])</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns 34 — the age of the first person.</t>
+  </si>
+  <si>
+    <t>4. Filter rows using a condition</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.loc[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"] == "Sikato", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"])</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns Sikato’s age as a Series</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.iloc[0]["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.iloc[0])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.iloc[0, 0])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.loc[0, "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.loc[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"] == "Sikato", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"] == "Sikato"])</t>
+    </r>
+  </si>
+  <si>
+    <t>Вариант 5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sikato   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>34</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          14</t>
+    </r>
+  </si>
+  <si>
+    <t>Принтирай като Dataframe</t>
+  </si>
+  <si>
+    <t>Select one row by label</t>
+  </si>
+  <si>
+    <t>Select one column by label</t>
+  </si>
+  <si>
+    <t>Select a specific cell</t>
+  </si>
+  <si>
+    <t>Filter rows using a condition</t>
+  </si>
+  <si>
+    <t>Select row 1, col 1</t>
+  </si>
+  <si>
+    <t>Load data</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.loc[0]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.iloc[0]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.loc[:, "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loc[0, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.iloc[0]["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"] == "Sikato"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.iloc[0, 0]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = pd.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read_excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(r"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C:\Users\user\Desktop\merged_sklad 07.10.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>usecols</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">="A,B,E", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=None)</t>
+    </r>
+  </si>
+  <si>
+    <t>Select columns</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"]]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>["age"]</t>
+    </r>
+  </si>
+  <si>
+    <t>Sort data</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sort_values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ascending</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=True)</t>
+    </r>
+  </si>
+  <si>
+    <t>print(type(result))</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sort_values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">="age", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ascending</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=True)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(type(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>")["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>groupby()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>").</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>({"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "sum"})</t>
+    </r>
+  </si>
+  <si>
+    <t>agg()</t>
+  </si>
+  <si>
+    <t>Каква е разликата между двата примера</t>
+  </si>
+  <si>
+    <t>Boce      33</t>
+  </si>
+  <si>
+    <t>Gogata    30</t>
+  </si>
+  <si>
+    <t>Rambo     29</t>
+  </si>
+  <si>
+    <t>Sikato    34</t>
+  </si>
+  <si>
+    <t>Slavi     18</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>")["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(type(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>() + agg()</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        age</t>
+  </si>
+  <si>
+    <t>Boce     33</t>
+  </si>
+  <si>
+    <t>Gogata   30</t>
+  </si>
+  <si>
+    <t>Rambo    29</t>
+  </si>
+  <si>
+    <t>Sikato   34</t>
+  </si>
+  <si>
+    <t>Slavi    18</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = df.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>").</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>({"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "sum"})</t>
+    </r>
+  </si>
+  <si>
+    <t>Summary of differences</t>
+  </si>
+  <si>
+    <t>Example 1</t>
+  </si>
+  <si>
+    <t>Example 2</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Returns</t>
+  </si>
+  <si>
+    <t>Columns included</t>
+  </si>
+  <si>
+    <t>Only one column (“age”)</t>
+  </si>
+  <si>
+    <t>Can aggregate multiple columns</t>
+  </si>
+  <si>
+    <t>Easier for multiple aggregations?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <r>
+      <t>df.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("name")["age"].sum()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("name").</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>({"age": "sum"})</t>
+    </r>
+  </si>
+  <si>
+    <t>You can do multiple aggregations at once:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       age       experiance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       sum  mean        max</t>
+  </si>
+  <si>
+    <t>Boce    33  33.0         13</t>
+  </si>
+  <si>
+    <t>Gogata  30  30.0         11</t>
+  </si>
+  <si>
+    <t>Rambo   29  29.0         10</t>
+  </si>
+  <si>
+    <t>Sikato  34  34.0         14</t>
+  </si>
+  <si>
+    <t>Slavi   18  18.0          1</t>
+  </si>
+  <si>
+    <r>
+      <t>result = df.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>").agg({</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": ["sum", "mean"],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>experiance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "max"</t>
+    </r>
+  </si>
+  <si>
+    <t>multiple agg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>").</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>({"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": ["sum", "mean"],"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>experiance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "max"})</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="50">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -18654,10 +22386,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -18667,138 +22399,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18807,9 +22552,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="FF64AF8C"/>
       <color rgb="FFA47A20"/>
       <color rgb="FF179A77"/>
+      <color rgb="FF64AF8C"/>
       <color rgb="FFDA7BB9"/>
       <color rgb="FFA626A4"/>
       <color rgb="FFFF33CC"/>
@@ -21799,6 +25544,58 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>310055</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>94593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>541283</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>96181</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2138855" y="12601903"/>
+          <a:ext cx="2669628" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -22084,10 +25881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R823"/>
+  <dimension ref="A1:R893"/>
   <sheetViews>
-    <sheetView topLeftCell="A786" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E801" sqref="E801"/>
+    <sheetView topLeftCell="A61" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26218,7 +30015,7 @@
       <c r="B626" s="97"/>
     </row>
     <row r="628" spans="2:12">
-      <c r="B628" s="110" t="s">
+      <c r="B628" s="118" t="s">
         <v>684</v>
       </c>
     </row>
@@ -27015,34 +30812,416 @@
         <v>701</v>
       </c>
     </row>
-    <row r="817" spans="2:2">
+    <row r="817" spans="1:3">
       <c r="B817" s="110" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="818" spans="2:2">
+    <row r="818" spans="1:3">
       <c r="B818" s="110" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="819" spans="2:2">
+    <row r="819" spans="1:3">
       <c r="B819" s="110" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="821" spans="2:2">
+    <row r="821" spans="1:3">
       <c r="B821" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="822" spans="2:2">
+    <row r="822" spans="1:3">
       <c r="B822" s="110" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="823" spans="2:2">
+    <row r="823" spans="1:3">
       <c r="B823" s="110" t="s">
         <v>709</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3">
+      <c r="A826" s="23" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3">
+      <c r="B827" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3">
+      <c r="B828" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3">
+      <c r="B830" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3">
+      <c r="C831" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="833" spans="2:8">
+      <c r="B833" s="23" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="834" spans="2:8">
+      <c r="C834" s="118" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="836" spans="2:8">
+      <c r="C836" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="837" spans="2:8">
+      <c r="C837" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="840" spans="2:8">
+      <c r="B840" s="23" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="841" spans="2:8">
+      <c r="B841" s="118" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="842" spans="2:8">
+      <c r="H842" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="843" spans="2:8">
+      <c r="B843" s="118" t="s">
+        <v>264</v>
+      </c>
+      <c r="H843" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="844" spans="2:8">
+      <c r="B844" t="s">
+        <v>736</v>
+      </c>
+      <c r="H844" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="845" spans="2:8">
+      <c r="B845" t="s">
+        <v>737</v>
+      </c>
+      <c r="H845" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="846" spans="2:8">
+      <c r="B846" t="s">
+        <v>738</v>
+      </c>
+      <c r="H846" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="847" spans="2:8">
+      <c r="B847" t="s">
+        <v>138</v>
+      </c>
+      <c r="H847" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="849" spans="2:10">
+      <c r="B849" s="118" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="852" spans="2:10">
+      <c r="B852" s="23" t="s">
+        <v>806</v>
+      </c>
+      <c r="F852" s="118" t="s">
+        <v>807</v>
+      </c>
+      <c r="J852" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="853" spans="2:10">
+      <c r="B853" t="s">
+        <v>811</v>
+      </c>
+      <c r="F853" s="118" t="s">
+        <v>808</v>
+      </c>
+      <c r="J853" s="23" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="854" spans="2:10">
+      <c r="F854" s="118" t="s">
+        <v>809</v>
+      </c>
+      <c r="J854" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="855" spans="2:10">
+      <c r="B855" s="118" t="s">
+        <v>812</v>
+      </c>
+      <c r="F855" t="s">
+        <v>747</v>
+      </c>
+      <c r="J855" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="856" spans="2:10">
+      <c r="J856" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="857" spans="2:10">
+      <c r="F857" t="s">
+        <v>11</v>
+      </c>
+      <c r="J857" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="860" spans="2:10">
+      <c r="B860" s="23" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="861" spans="2:10">
+      <c r="B861" t="s">
+        <v>822</v>
+      </c>
+      <c r="F861" t="s">
+        <v>757</v>
+      </c>
+      <c r="J861" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="862" spans="2:10">
+      <c r="F862" t="s">
+        <v>814</v>
+      </c>
+      <c r="J862" s="118" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="863" spans="2:10">
+      <c r="B863" s="118" t="s">
+        <v>813</v>
+      </c>
+      <c r="F863" t="s">
+        <v>815</v>
+      </c>
+      <c r="J863" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="864" spans="2:10">
+      <c r="F864" t="s">
+        <v>816</v>
+      </c>
+      <c r="J864" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="865" spans="2:10">
+      <c r="F865" t="s">
+        <v>817</v>
+      </c>
+      <c r="J865" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="866" spans="2:10">
+      <c r="F866" t="s">
+        <v>758</v>
+      </c>
+      <c r="J866" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="868" spans="2:10">
+      <c r="F868" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="869" spans="2:10">
+      <c r="B869" s="23" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="870" spans="2:10">
+      <c r="B870" s="118" t="s">
+        <v>825</v>
+      </c>
+      <c r="J870" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="871" spans="2:10">
+      <c r="F871" s="2">
+        <v>34</v>
+      </c>
+      <c r="J871" s="118" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="872" spans="2:10">
+      <c r="B872" s="23"/>
+      <c r="J872" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="873" spans="2:10">
+      <c r="B873" s="118" t="s">
+        <v>824</v>
+      </c>
+      <c r="J873" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="874" spans="2:10">
+      <c r="B874" s="23"/>
+      <c r="F874" t="s">
+        <v>766</v>
+      </c>
+      <c r="J874" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="875" spans="2:10">
+      <c r="B875" s="23"/>
+      <c r="J875" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="876" spans="2:10">
+      <c r="B876" s="23"/>
+    </row>
+    <row r="877" spans="2:10">
+      <c r="B877" s="23" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="878" spans="2:10">
+      <c r="B878" s="118" t="s">
+        <v>828</v>
+      </c>
+      <c r="J878" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="879" spans="2:10">
+      <c r="J879" s="118" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="880" spans="2:10">
+      <c r="B880" s="118" t="s">
+        <v>827</v>
+      </c>
+      <c r="J880" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="881" spans="1:10">
+      <c r="F881" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="J881" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="882" spans="1:10">
+      <c r="B882" s="118"/>
+      <c r="F882" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="J882" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="883" spans="1:10">
+      <c r="B883" s="118"/>
+      <c r="J883" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="884" spans="1:10">
+      <c r="B884" s="118"/>
+    </row>
+    <row r="885" spans="1:10">
+      <c r="A885" s="23" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="888" spans="1:10">
+      <c r="B888" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="890" spans="1:10">
+      <c r="B890" s="23" t="s">
+        <v>792</v>
+      </c>
+      <c r="D890" s="23" t="s">
+        <v>793</v>
+      </c>
+      <c r="H890" s="23" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="891" spans="1:10">
+      <c r="B891" t="s">
+        <v>795</v>
+      </c>
+      <c r="D891" t="s">
+        <v>796</v>
+      </c>
+      <c r="H891" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="892" spans="1:10">
+      <c r="B892" t="s">
+        <v>798</v>
+      </c>
+      <c r="D892" t="s">
+        <v>799</v>
+      </c>
+      <c r="H892" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="893" spans="1:10">
+      <c r="B893" t="s">
+        <v>801</v>
+      </c>
+      <c r="D893" t="s">
+        <v>803</v>
+      </c>
+      <c r="H893" t="s">
+        <v>802</v>
       </c>
     </row>
   </sheetData>
@@ -27056,9 +31235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:M360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F325" sqref="F325"/>
-    </sheetView>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
@@ -30171,7 +34348,7 @@
   <dimension ref="A5:M85"/>
   <sheetViews>
     <sheetView topLeftCell="A70" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -30665,4 +34842,1248 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:N152"/>
+  <sheetViews>
+    <sheetView topLeftCell="A133" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" s="23" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="118" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="H5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="118" t="s">
+        <v>264</v>
+      </c>
+      <c r="H6" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" t="s">
+        <v>736</v>
+      </c>
+      <c r="H7" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" t="s">
+        <v>737</v>
+      </c>
+      <c r="H8" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" t="s">
+        <v>738</v>
+      </c>
+      <c r="H9" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="118" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="23" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="I16" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="118" t="s">
+        <v>830</v>
+      </c>
+      <c r="E17" s="118" t="s">
+        <v>748</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>740</v>
+      </c>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="E18" s="118" t="s">
+        <v>749</v>
+      </c>
+      <c r="I18" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="E19" s="118" t="s">
+        <v>750</v>
+      </c>
+      <c r="I19" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="E20" t="s">
+        <v>747</v>
+      </c>
+      <c r="I20" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="I21" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="E22" s="118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="118" t="s">
+        <v>812</v>
+      </c>
+      <c r="E24" s="118" t="s">
+        <v>807</v>
+      </c>
+      <c r="I24" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="E25" s="118" t="s">
+        <v>808</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="E26" s="118" t="s">
+        <v>809</v>
+      </c>
+      <c r="I26" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="E27" t="s">
+        <v>747</v>
+      </c>
+      <c r="I27" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="I28" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" t="s">
+        <v>837</v>
+      </c>
+      <c r="I32" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="F33" t="s">
+        <v>739</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="B34" s="118" t="s">
+        <v>834</v>
+      </c>
+      <c r="F34" t="s">
+        <v>740</v>
+      </c>
+      <c r="I34" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="B35" s="118"/>
+      <c r="I35" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="B36" s="118"/>
+      <c r="I36" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="B37" s="118"/>
+      <c r="E37" t="s">
+        <v>202</v>
+      </c>
+      <c r="I37" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" s="118"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="23" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="I42" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="B43" s="118" t="s">
+        <v>829</v>
+      </c>
+      <c r="E43" s="2">
+        <v>34</v>
+      </c>
+      <c r="I43" s="118" t="s">
+        <v>753</v>
+      </c>
+      <c r="J43" s="23"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="B44" s="118" t="s">
+        <v>824</v>
+      </c>
+      <c r="I44" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="I45" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="I46" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="I47" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="23" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="I50" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="B51" s="118" t="s">
+        <v>831</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="I51" s="118" t="s">
+        <v>790</v>
+      </c>
+      <c r="J51" s="23"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="I52" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="B53" s="118" t="s">
+        <v>832</v>
+      </c>
+      <c r="I53" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="I54" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="I55" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="J59" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="B60" s="118" t="s">
+        <v>834</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="J60" s="23" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="F61" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="J61" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="J62" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="F63" t="s">
+        <v>202</v>
+      </c>
+      <c r="J63" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="J64" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="B67" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="I67" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="B68" t="s">
+        <v>756</v>
+      </c>
+      <c r="I68" s="118" t="s">
+        <v>753</v>
+      </c>
+      <c r="K68" s="23"/>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="I69" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="F70" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="I70" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="F71" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="I71" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="I72" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="F73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="B75" s="23" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="B77" s="118" t="s">
+        <v>761</v>
+      </c>
+      <c r="H77" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="H78" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="B79" s="118" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="C80" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="C81" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="C82" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="23" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="118" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="H89" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="H90" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="23" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" t="s">
+        <v>776</v>
+      </c>
+      <c r="I93" s="119" t="s">
+        <v>771</v>
+      </c>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="I94" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="J94" s="8"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="118" t="s">
+        <v>777</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="J95" s="8"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" t="s">
+        <v>778</v>
+      </c>
+      <c r="F96" s="43">
+        <v>34</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="J96" s="8"/>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="I97" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="J97" s="8"/>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="I98" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="J98" s="11"/>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="B100" s="23" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="B102" s="118" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="F103" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="F104" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="F106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="23" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="B110" s="118" t="s">
+        <v>858</v>
+      </c>
+      <c r="J110" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="B111" t="s">
+        <v>859</v>
+      </c>
+      <c r="J111" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="B112" t="s">
+        <v>860</v>
+      </c>
+      <c r="E112" t="s">
+        <v>202</v>
+      </c>
+      <c r="J112" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="J113" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="J114" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="J115" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="118" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="I117" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="B118" s="118" t="s">
+        <v>871</v>
+      </c>
+      <c r="I118" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="B119" t="s">
+        <v>724</v>
+      </c>
+      <c r="I119" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="B120" t="s">
+        <v>872</v>
+      </c>
+      <c r="D120" t="s">
+        <v>11</v>
+      </c>
+      <c r="I120" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="I121" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="I122" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="I123" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="118" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="I126" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="B127" s="118" t="s">
+        <v>880</v>
+      </c>
+      <c r="I127" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="B128" t="s">
+        <v>859</v>
+      </c>
+      <c r="I128" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14">
+      <c r="B129" t="s">
+        <v>860</v>
+      </c>
+      <c r="D129" t="s">
+        <v>202</v>
+      </c>
+      <c r="I129" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14">
+      <c r="I130" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14">
+      <c r="I131" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14">
+      <c r="I132" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14">
+      <c r="B134" s="23" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14">
+      <c r="C136" s="128" t="s">
+        <v>792</v>
+      </c>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="128" t="s">
+        <v>882</v>
+      </c>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="128" t="s">
+        <v>883</v>
+      </c>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="5"/>
+    </row>
+    <row r="137" spans="2:14">
+      <c r="C137" s="17" t="s">
+        <v>884</v>
+      </c>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="17" t="s">
+        <v>892</v>
+      </c>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
+      <c r="J137" s="15"/>
+      <c r="K137" s="17" t="s">
+        <v>893</v>
+      </c>
+      <c r="L137" s="14"/>
+      <c r="M137" s="14"/>
+      <c r="N137" s="15"/>
+    </row>
+    <row r="138" spans="2:14">
+      <c r="C138" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="8"/>
+      <c r="K138" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L138" s="7"/>
+      <c r="M138" s="7"/>
+      <c r="N138" s="8"/>
+    </row>
+    <row r="139" spans="2:14">
+      <c r="C139" s="17" t="s">
+        <v>886</v>
+      </c>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="15"/>
+      <c r="K139" s="17" t="s">
+        <v>888</v>
+      </c>
+      <c r="L139" s="14"/>
+      <c r="M139" s="14"/>
+      <c r="N139" s="15"/>
+    </row>
+    <row r="140" spans="2:14">
+      <c r="C140" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="H140" s="10"/>
+      <c r="I140" s="10"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="L140" s="10"/>
+      <c r="M140" s="10"/>
+      <c r="N140" s="11"/>
+    </row>
+    <row r="144" spans="2:14">
+      <c r="B144" s="23" t="s">
+        <v>894</v>
+      </c>
+      <c r="I144" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9">
+      <c r="I145" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9">
+      <c r="B146" t="s">
+        <v>902</v>
+      </c>
+      <c r="I146" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9">
+      <c r="B147" t="s">
+        <v>903</v>
+      </c>
+      <c r="I147" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9">
+      <c r="B148" t="s">
+        <v>904</v>
+      </c>
+      <c r="I148" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9">
+      <c r="B149" t="s">
+        <v>30</v>
+      </c>
+      <c r="I149" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9">
+      <c r="I150" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9">
+      <c r="B151" t="s">
+        <v>716</v>
+      </c>
+      <c r="I151" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9">
+      <c r="B152" t="s">
+        <v>857</v>
+      </c>
+      <c r="E152" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A4:Q17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:17">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="120" t="s">
+        <v>844</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="121" t="s">
+        <v>845</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="120" t="s">
+        <v>846</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="121" t="s">
+        <v>854</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="120" t="s">
+        <v>847</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="122" t="s">
+        <v>848</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="9">
+        <v>4</v>
+      </c>
+      <c r="B10" s="125" t="s">
+        <v>852</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="122" t="s">
+        <v>853</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125" t="s">
+        <v>202</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="9">
+        <v>5</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="122" t="s">
+        <v>849</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="17">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>842</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="123" t="s">
+        <v>850</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="17">
+        <v>7</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="123" t="s">
+        <v>851</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="17">
+        <v>8</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>855</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="123" t="s">
+        <v>856</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="85">
+        <v>9</v>
+      </c>
+      <c r="B15" s="129" t="s">
+        <v>862</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="130" t="s">
+        <v>861</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="5"/>
+      <c r="Q15" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="126">
+        <v>10</v>
+      </c>
+      <c r="B16" s="124" t="s">
+        <v>864</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="127" t="s">
+        <v>863</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124" t="s">
+        <v>202</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="86">
+        <v>11</v>
+      </c>
+      <c r="B17" s="125" t="s">
+        <v>905</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="122" t="s">
+        <v>906</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125" t="s">
+        <v>202</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pandas.xlsx
+++ b/pandas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="956">
   <si>
     <t>Series</t>
   </si>
@@ -20718,9 +20718,6 @@
     </r>
   </si>
   <si>
-    <t>print(type(result))</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -21113,21 +21110,9 @@
     <t>Каква е разликата между двата примера</t>
   </si>
   <si>
-    <t>Boce      33</t>
-  </si>
-  <si>
-    <t>Gogata    30</t>
-  </si>
-  <si>
-    <t>Rambo     29</t>
-  </si>
-  <si>
-    <t>Sikato    34</t>
-  </si>
-  <si>
-    <t>Slavi     18</t>
-  </si>
-  <si>
+    <r>
+      <t>print(type(</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -21147,6 +21132,339 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>() + agg()</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 1</t>
+  </si>
+  <si>
+    <t>Example 2</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>You can do multiple aggregations at once:</t>
+  </si>
+  <si>
+    <t>multiple agg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>").</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>({"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": ["sum", "mean"],"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>experiance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "max"})</t>
+    </r>
+  </si>
+  <si>
+    <t>pivot table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "age" : [34, 33, 18, 29, 30, 30],</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": ["Sikato", "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Boce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", "Slavi", "Rambo", "Gogata", "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Boce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"],</t>
+    </r>
+  </si>
+  <si>
+    <t>Boce      43</t>
+  </si>
+  <si>
+    <t>Gogata    11</t>
+  </si>
+  <si>
+    <t>Rambo     10</t>
+  </si>
+  <si>
+    <t>Sikato    14</t>
+  </si>
+  <si>
+    <t>Slavi      1</t>
+  </si>
+  <si>
+    <t>Name: experiance, dtype: int64</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1    Boce   33          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0  Sikato   34          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5    Boce   30          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> = </t>
     </r>
     <r>
@@ -21221,6 +21539,680 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
+      <t>experiance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Групирай по </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(остваи само уникалните имена) и за всяко име сумирай </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">experiance </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>стойностите</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Този код прави същото както </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pivot table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> в excel</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        experiance</t>
+  </si>
+  <si>
+    <t>Boce            43</t>
+  </si>
+  <si>
+    <t>Gogata          11</t>
+  </si>
+  <si>
+    <t>Rambo           10</t>
+  </si>
+  <si>
+    <t>Sikato          14</t>
+  </si>
+  <si>
+    <t>Slavi            1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>experiance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">": [14, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 1, 10, 11, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>group by "name"</t>
+  </si>
+  <si>
+    <t>select one column: "experiance"</t>
+  </si>
+  <si>
+    <t>What happens:</t>
+  </si>
+  <si>
+    <t>apply .sum() directly to selcted column "experience"</t>
+  </si>
+  <si>
+    <t>Result:</t>
+  </si>
+  <si>
+    <t>Output will be a pandas Series, because:</t>
+  </si>
+  <si>
+    <t>You grouped by one column (name)</t>
+  </si>
+  <si>
+    <t>Aggregated one column (experiance)</t>
+  </si>
+  <si>
+    <t>The result is a one-dimensional mapping of name → sum(experiance)</t>
+  </si>
+  <si>
+    <t>You use .agg() to aggregate using a dictionary, specifying the column(s) and aggregation function(s)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = df.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>").</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>({"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>experiance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "sum"})</t>
+    </r>
+  </si>
+  <si>
+    <t>In this case, you sum "experiance" for each name</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>Aggregated -&gt; Обобщени</t>
+  </si>
+  <si>
+    <t>Output will be a pandas DataFrame, because:</t>
+  </si>
+  <si>
+    <t>.agg() always returns a DataFrame (even if you only aggregate one column)</t>
+  </si>
+  <si>
+    <t>The result keeps column labels (here, just "experiance").</t>
+  </si>
+  <si>
+    <t>Aspect</t>
+  </si>
+  <si>
+    <t>Aggregation method</t>
+  </si>
+  <si>
+    <t>Direct column + .sum()</t>
+  </si>
+  <si>
+    <t>Dictionary via .agg()</t>
+  </si>
+  <si>
+    <t>Output type</t>
+  </si>
+  <si>
+    <t>pandas.Series</t>
+  </si>
+  <si>
+    <t>pandas.DataFrame</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>1D (index = name)</t>
+  </si>
+  <si>
+    <t>2D (index = name, column = age)</t>
+  </si>
+  <si>
+    <t>When to use</t>
+  </si>
+  <si>
+    <t>Quick operation on a single column</t>
+  </si>
+  <si>
+    <t>More flexible (multiple columns or custom funcs</t>
+  </si>
+  <si>
+    <r>
+      <t>df.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>").</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>({"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>experiance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"})</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>")["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>experiance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>Основно правило</t>
+  </si>
+  <si>
+    <t>Summary of the Difference:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use groupby()[col].sum() for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>simple one-column aggregation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use .agg() when you need </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>multiple aggregations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>more control</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>age</t>
     </r>
     <r>
@@ -21231,7 +22223,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"].</t>
+      <t>": ["</t>
     </r>
     <r>
       <rPr>
@@ -21252,77 +22244,507 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>experiance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Gogata</t>
+  </si>
+  <si>
+    <t>Rambo</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF64AF8C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = df.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>").agg({</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>experiance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">": [14, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 1, 10, 11, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" : [34, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 18, 29, 30, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>You group the DataFrame by the "name" column. → Each unique name becomes a group</t>
+  </si>
+  <si>
+    <t>You use .agg() with a dictionary that defines different aggregation functions for different columns:</t>
+  </si>
+  <si>
+    <t>For "age", you want both "sum" and "mean"</t>
+  </si>
+  <si>
+    <t>For "experiance", you want only "max"</t>
+  </si>
+  <si>
+    <t>The output will be a pandas DataFrame with a MultiIndex (hierarchical) column structure — because you applied multiple functions to the same column</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>set_index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>()</t>
     </r>
   </si>
   <si>
     <r>
-      <t>print(type(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>result</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>))</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>groupby</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>() + agg()</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">        age</t>
-  </si>
-  <si>
-    <t>Boce     33</t>
-  </si>
-  <si>
-    <t>Gogata   30</t>
-  </si>
-  <si>
-    <t>Rambo    29</t>
-  </si>
-  <si>
-    <t>Sikato   34</t>
-  </si>
-  <si>
-    <t>Slavi    18</t>
-  </si>
-  <si>
+      <t xml:space="preserve">    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": ["Sikato", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Boce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", "Slavi", "Rambo", "Gogata", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Boce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>experiance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">": [14, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 1, 10, 11, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" : [34, 33, 18, 29, 30, 30],</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        age  experiance</t>
+  </si>
+  <si>
+    <t>Boce     30          30</t>
+  </si>
+  <si>
+    <r>
+      <t>print(</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -21332,345 +22754,6 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>result</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = df.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>groupby</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>("</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF179A77"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>").</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>agg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>({"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF179A77"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>age</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "sum"})</t>
-    </r>
-  </si>
-  <si>
-    <t>Summary of differences</t>
-  </si>
-  <si>
-    <t>Example 1</t>
-  </si>
-  <si>
-    <t>Example 2</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Returns</t>
-  </si>
-  <si>
-    <t>Columns included</t>
-  </si>
-  <si>
-    <t>Only one column (“age”)</t>
-  </si>
-  <si>
-    <t>Can aggregate multiple columns</t>
-  </si>
-  <si>
-    <t>Easier for multiple aggregations?</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <r>
-      <t>df.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>groupby</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>("name")["age"].sum()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>df.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>groupby</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>("name").</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>agg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>({"age": "sum"})</t>
-    </r>
-  </si>
-  <si>
-    <t>You can do multiple aggregations at once:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       age       experiance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       sum  mean        max</t>
-  </si>
-  <si>
-    <t>Boce    33  33.0         13</t>
-  </si>
-  <si>
-    <t>Gogata  30  30.0         11</t>
-  </si>
-  <si>
-    <t>Rambo   29  29.0         10</t>
-  </si>
-  <si>
-    <t>Sikato  34  34.0         14</t>
-  </si>
-  <si>
-    <t>Slavi   18  18.0          1</t>
-  </si>
-  <si>
-    <r>
-      <t>result = df.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>groupby</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>("</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF179A77"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>").agg({</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF179A77"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>age</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": ["sum", "mean"],</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF179A77"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>experiance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "max"</t>
-    </r>
-  </si>
-  <si>
-    <t>multiple agg</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF64AF8C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>df</t>
     </r>
     <r>
@@ -21679,127 +22762,69 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>groupby</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>("</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF179A77"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>").</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>agg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>({"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF179A77"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>age</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": ["sum", "mean"],"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF179A77"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>experiance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "max"})</t>
-    </r>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sikato   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">34 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         14</t>
+    </r>
+  </si>
+  <si>
+    <t>5    Boce   30          30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="51">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -22190,6 +23215,23 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -22386,10 +23428,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -22399,151 +23441,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -22552,11 +23604,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF64AF8C"/>
+      <color rgb="FF179A77"/>
       <color rgb="FFA47A20"/>
-      <color rgb="FF179A77"/>
-      <color rgb="FF64AF8C"/>
+      <color rgb="FFA626A4"/>
       <color rgb="FFDA7BB9"/>
-      <color rgb="FFA626A4"/>
       <color rgb="FFFF33CC"/>
       <color rgb="FF1E7D6A"/>
       <color rgb="FF005F6A"/>
@@ -25593,6 +26645,194 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5600701" y="23645813"/>
+          <a:ext cx="1090612" cy="157163"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5605463" y="23693438"/>
+          <a:ext cx="1095375" cy="828676"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="40500301"/>
+          <a:ext cx="2476500" cy="300037"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>120651</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="39933563"/>
+          <a:ext cx="1395413" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -31235,7 +32475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:M360"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView topLeftCell="A343" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A360" sqref="A360"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
@@ -34846,10 +36088,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:N152"/>
+  <dimension ref="A2:M233"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K221" sqref="K221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -35407,7 +36649,7 @@
     </row>
     <row r="110" spans="1:10">
       <c r="B110" s="118" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J110" t="s">
         <v>739</v>
@@ -35415,7 +36657,7 @@
     </row>
     <row r="111" spans="1:10">
       <c r="B111" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J111" t="s">
         <v>742</v>
@@ -35423,7 +36665,7 @@
     </row>
     <row r="112" spans="1:10">
       <c r="B112" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E112" t="s">
         <v>202</v>
@@ -35453,274 +36695,825 @@
       </c>
     </row>
     <row r="117" spans="1:10">
-      <c r="I117" t="s">
+      <c r="A117" s="118"/>
+      <c r="B117" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="118"/>
+      <c r="B118" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="118"/>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="118"/>
+      <c r="B120" s="23" t="s">
+        <v>897</v>
+      </c>
+      <c r="G120" s="23" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="118"/>
+      <c r="B121" t="s">
+        <v>895</v>
+      </c>
+      <c r="G121" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="118"/>
+      <c r="B122" t="s">
+        <v>896</v>
+      </c>
+      <c r="H122" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="118"/>
+      <c r="B123" t="s">
+        <v>898</v>
+      </c>
+      <c r="H123" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="118"/>
+      <c r="H124" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="118"/>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="118"/>
+      <c r="B126" s="130" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="118"/>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="118"/>
+      <c r="B128" s="130" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="118"/>
+      <c r="B129" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="118"/>
+      <c r="B130" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="118"/>
+      <c r="B131" t="s">
+        <v>894</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="I131" s="4"/>
+      <c r="J131" s="5"/>
+      <c r="L131" s="2" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
-      <c r="B118" s="118" t="s">
-        <v>871</v>
-      </c>
-      <c r="I118" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
-      <c r="B119" t="s">
+    <row r="132" spans="1:12">
+      <c r="A132" s="118"/>
+      <c r="B132" t="s">
+        <v>138</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="I132" s="7"/>
+      <c r="J132" s="8"/>
+      <c r="L132" s="131" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="H133" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="I133" s="7"/>
+      <c r="J133" s="8"/>
+      <c r="L133" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="B134" s="130" t="s">
+        <v>266</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="I134" s="7"/>
+      <c r="J134" s="8"/>
+      <c r="L134" s="2" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="H135" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="I135" s="7"/>
+      <c r="J135" s="8"/>
+      <c r="L135" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="B136" s="130" t="s">
+        <v>885</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="I136" s="7"/>
+      <c r="J136" s="8"/>
+      <c r="L136" s="2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="B137" t="s">
         <v>724</v>
       </c>
-      <c r="I119" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
-      <c r="B120" t="s">
-        <v>872</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="H137" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="I137" s="10"/>
+      <c r="J137" s="11"/>
+      <c r="L137" s="2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="B138" t="s">
+        <v>865</v>
+      </c>
+      <c r="E138" t="s">
         <v>11</v>
-      </c>
-      <c r="I120" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
-      <c r="I121" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
-      <c r="I122" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
-      <c r="I123" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
-      <c r="A125" s="118" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
-      <c r="I126" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="B127" s="118" t="s">
-        <v>880</v>
-      </c>
-      <c r="I127" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
-      <c r="B128" t="s">
-        <v>859</v>
-      </c>
-      <c r="I128" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14">
-      <c r="B129" t="s">
-        <v>860</v>
-      </c>
-      <c r="D129" t="s">
-        <v>202</v>
-      </c>
-      <c r="I129" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14">
-      <c r="I130" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14">
-      <c r="I131" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14">
-      <c r="I132" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14">
-      <c r="B134" s="23" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14">
-      <c r="C136" s="128" t="s">
-        <v>792</v>
-      </c>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="128" t="s">
-        <v>882</v>
-      </c>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
-      <c r="J136" s="5"/>
-      <c r="K136" s="128" t="s">
-        <v>883</v>
-      </c>
-      <c r="L136" s="4"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="5"/>
-    </row>
-    <row r="137" spans="2:14">
-      <c r="C137" s="17" t="s">
-        <v>884</v>
-      </c>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="17" t="s">
-        <v>892</v>
-      </c>
-      <c r="H137" s="14"/>
-      <c r="I137" s="14"/>
-      <c r="J137" s="15"/>
-      <c r="K137" s="17" t="s">
-        <v>893</v>
-      </c>
-      <c r="L137" s="14"/>
-      <c r="M137" s="14"/>
-      <c r="N137" s="15"/>
-    </row>
-    <row r="138" spans="2:14">
-      <c r="C138" s="6" t="s">
-        <v>885</v>
-      </c>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="6" t="s">
-        <v>0</v>
       </c>
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
-      <c r="J138" s="8"/>
-      <c r="K138" s="6" t="s">
+      <c r="J138" s="7"/>
+      <c r="L138" s="2"/>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" s="118" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" s="118"/>
+      <c r="B141" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="118"/>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="118"/>
+      <c r="B143" s="23" t="s">
+        <v>897</v>
+      </c>
+      <c r="G143" s="23" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" s="118"/>
+      <c r="B144" s="130" t="s">
+        <v>895</v>
+      </c>
+      <c r="G144" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" s="118"/>
+      <c r="B145" s="130" t="s">
+        <v>904</v>
+      </c>
+      <c r="F145" t="s">
+        <v>76</v>
+      </c>
+      <c r="G145" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" s="118"/>
+      <c r="B146" s="130" t="s">
+        <v>906</v>
+      </c>
+      <c r="G146" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="118"/>
+      <c r="B147" s="23"/>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" s="118"/>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="118"/>
+      <c r="B149" s="130" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="118"/>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="118"/>
+      <c r="B151" s="130" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="118"/>
+      <c r="B152" t="s">
+        <v>875</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="J152" s="4"/>
+      <c r="K152" s="5"/>
+      <c r="M152" s="2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" s="118"/>
+      <c r="B153" t="s">
+        <v>874</v>
+      </c>
+      <c r="I153" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="J153" s="7"/>
+      <c r="K153" s="8"/>
+      <c r="M153" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="118"/>
+      <c r="B154" t="s">
+        <v>894</v>
+      </c>
+      <c r="I154" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="J154" s="7"/>
+      <c r="K154" s="8"/>
+      <c r="M154" s="39" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" s="118"/>
+      <c r="B155" t="s">
+        <v>138</v>
+      </c>
+      <c r="I155" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="J155" s="7"/>
+      <c r="K155" s="8"/>
+      <c r="M155" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="I156" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="J156" s="7"/>
+      <c r="K156" s="8"/>
+      <c r="M156" s="2" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="I157" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="J157" s="7"/>
+      <c r="K157" s="8"/>
+      <c r="M157" s="2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="B158" s="130" t="s">
+        <v>266</v>
+      </c>
+      <c r="I158" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="J158" s="10"/>
+      <c r="K158" s="11"/>
+      <c r="M158" s="2" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="B160" s="130" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8">
+      <c r="B161" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8">
+      <c r="B162" t="s">
+        <v>859</v>
+      </c>
+      <c r="D162" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8">
+      <c r="B165" s="23" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8">
+      <c r="B167" s="23" t="s">
+        <v>912</v>
+      </c>
+      <c r="D167" s="23" t="s">
+        <v>867</v>
+      </c>
+      <c r="H167" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8">
+      <c r="B168" t="s">
+        <v>869</v>
+      </c>
+      <c r="D168" t="s">
+        <v>926</v>
+      </c>
+      <c r="H168" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8">
+      <c r="B169" t="s">
+        <v>913</v>
+      </c>
+      <c r="D169" t="s">
+        <v>914</v>
+      </c>
+      <c r="H169" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8">
+      <c r="B170" t="s">
+        <v>916</v>
+      </c>
+      <c r="D170" t="s">
+        <v>917</v>
+      </c>
+      <c r="H170" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8">
+      <c r="B171" t="s">
+        <v>919</v>
+      </c>
+      <c r="D171" t="s">
+        <v>920</v>
+      </c>
+      <c r="H171" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8">
+      <c r="B172" t="s">
+        <v>922</v>
+      </c>
+      <c r="D172" t="s">
+        <v>923</v>
+      </c>
+      <c r="H172" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8">
+      <c r="B174" s="23" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8">
+      <c r="C175" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="C177" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="23" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="23"/>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="23"/>
+      <c r="B182" s="23" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="23"/>
+      <c r="B183" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="23"/>
+      <c r="B184" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="23"/>
+      <c r="C185" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="23"/>
+      <c r="C186" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="23"/>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="23"/>
+      <c r="B188" s="23" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="23"/>
+      <c r="B189" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="23"/>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="23"/>
+      <c r="B191" s="130" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="23"/>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193" s="23"/>
+      <c r="B193" s="130" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194" s="23"/>
+      <c r="B194" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195" s="23"/>
+      <c r="B195" t="s">
+        <v>941</v>
+      </c>
+      <c r="I195" s="132" t="s">
+        <v>937</v>
+      </c>
+      <c r="J195" s="15"/>
+      <c r="K195" s="133" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196" s="23"/>
+      <c r="B196" t="s">
+        <v>940</v>
+      </c>
+      <c r="H196" s="2"/>
+      <c r="I196" s="134" t="s">
+        <v>935</v>
+      </c>
+      <c r="J196" s="134" t="s">
+        <v>936</v>
+      </c>
+      <c r="K196" s="134" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197" s="23"/>
+      <c r="B197" t="s">
+        <v>138</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="I197" s="19"/>
+      <c r="J197" s="19"/>
+      <c r="K197" s="19"/>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198" s="23"/>
+      <c r="H198" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I198" s="137">
+        <v>63</v>
+      </c>
+      <c r="J198" s="135">
+        <v>31.5</v>
+      </c>
+      <c r="K198" s="136">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="B199" s="130" t="s">
+        <v>266</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="I199" s="19">
+        <v>30</v>
+      </c>
+      <c r="J199" s="19">
+        <v>30</v>
+      </c>
+      <c r="K199" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="H200" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="I200" s="19">
+        <v>29</v>
+      </c>
+      <c r="J200" s="19">
+        <v>29</v>
+      </c>
+      <c r="K200" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="B201" s="130" t="s">
+        <v>939</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="I201" s="19">
+        <v>34</v>
+      </c>
+      <c r="J201" s="19">
+        <v>34</v>
+      </c>
+      <c r="K201" s="19">
         <v>14</v>
       </c>
-      <c r="L138" s="7"/>
-      <c r="M138" s="7"/>
-      <c r="N138" s="8"/>
-    </row>
-    <row r="139" spans="2:14">
-      <c r="C139" s="17" t="s">
-        <v>886</v>
-      </c>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="17" t="s">
-        <v>887</v>
-      </c>
-      <c r="H139" s="14"/>
-      <c r="I139" s="14"/>
-      <c r="J139" s="15"/>
-      <c r="K139" s="17" t="s">
-        <v>888</v>
-      </c>
-      <c r="L139" s="14"/>
-      <c r="M139" s="14"/>
-      <c r="N139" s="15"/>
-    </row>
-    <row r="140" spans="2:14">
-      <c r="C140" s="9" t="s">
-        <v>889</v>
-      </c>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="11"/>
-      <c r="G140" s="9" t="s">
-        <v>890</v>
-      </c>
-      <c r="H140" s="10"/>
-      <c r="I140" s="10"/>
-      <c r="J140" s="11"/>
-      <c r="K140" s="9" t="s">
-        <v>891</v>
-      </c>
-      <c r="L140" s="10"/>
-      <c r="M140" s="10"/>
-      <c r="N140" s="11"/>
-    </row>
-    <row r="144" spans="2:14">
-      <c r="B144" s="23" t="s">
-        <v>894</v>
-      </c>
-      <c r="I144" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9">
-      <c r="I145" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9">
-      <c r="B146" t="s">
-        <v>902</v>
-      </c>
-      <c r="I146" t="s">
+    </row>
+    <row r="202" spans="1:11">
+      <c r="B202" t="s">
+        <v>931</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I202" s="20">
+        <v>18</v>
+      </c>
+      <c r="J202" s="20">
+        <v>18</v>
+      </c>
+      <c r="K202" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="B203" t="s">
+        <v>932</v>
+      </c>
+      <c r="H203" s="2"/>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="B204" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="B206" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="B207" t="s">
+        <v>859</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" s="138" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="B213" s="130" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="B215" s="130" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="B216" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="B217" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="B218" t="s">
+        <v>949</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="H218" s="4"/>
+      <c r="I218" s="5"/>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="B219" t="s">
+        <v>138</v>
+      </c>
+      <c r="G219" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="H219" s="7"/>
+      <c r="I219" s="8"/>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="G220" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="H220" s="7"/>
+      <c r="I220" s="8"/>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="B221" s="130" t="s">
+        <v>266</v>
+      </c>
+      <c r="G221" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="H221" s="7"/>
+      <c r="I221" s="8"/>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="G222" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="H222" s="7"/>
+      <c r="I222" s="8"/>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="B223" s="138" t="s">
+        <v>777</v>
+      </c>
+      <c r="G223" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="H223" s="7"/>
+      <c r="I223" s="8"/>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="B224" s="138" t="s">
+        <v>953</v>
+      </c>
+      <c r="G224" s="9" t="s">
+        <v>955</v>
+      </c>
+      <c r="H224" s="10"/>
+      <c r="I224" s="11"/>
+    </row>
+    <row r="225" spans="2:8">
+      <c r="B225" t="s">
+        <v>778</v>
+      </c>
+      <c r="E225" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8">
+      <c r="G226" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="H226" s="5"/>
+    </row>
+    <row r="227" spans="2:8">
+      <c r="G227" s="6" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="147" spans="2:9">
-      <c r="B147" t="s">
-        <v>903</v>
-      </c>
-      <c r="I147" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9">
-      <c r="B148" t="s">
-        <v>904</v>
-      </c>
-      <c r="I148" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9">
-      <c r="B149" t="s">
-        <v>30</v>
-      </c>
-      <c r="I149" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9">
-      <c r="I150" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9">
-      <c r="B151" t="s">
-        <v>716</v>
-      </c>
-      <c r="I151" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9">
-      <c r="B152" t="s">
-        <v>857</v>
-      </c>
-      <c r="E152" t="s">
-        <v>202</v>
-      </c>
+      <c r="H227" s="8"/>
+    </row>
+    <row r="228" spans="2:8">
+      <c r="G228" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="H228" s="8"/>
+    </row>
+    <row r="229" spans="2:8">
+      <c r="G229" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="H229" s="8"/>
+    </row>
+    <row r="230" spans="2:8">
+      <c r="G230" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="H230" s="8"/>
+    </row>
+    <row r="231" spans="2:8">
+      <c r="G231" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="H231" s="8"/>
+    </row>
+    <row r="232" spans="2:8">
+      <c r="G232" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="H232" s="8"/>
+    </row>
+    <row r="233" spans="2:8">
+      <c r="G233" s="9" t="s">
+        <v>952</v>
+      </c>
+      <c r="H233" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35733,8 +37526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -36009,28 +37802,30 @@
       <c r="A15" s="85">
         <v>9</v>
       </c>
-      <c r="B15" s="129" t="s">
-        <v>862</v>
+      <c r="B15" s="128" t="s">
+        <v>861</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="130" t="s">
-        <v>861</v>
+      <c r="E15" s="129" t="s">
+        <v>860</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129" t="s">
+      <c r="H15" s="128"/>
+      <c r="I15" s="128" t="s">
+        <v>873</v>
+      </c>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128" t="s">
         <v>11</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="5"/>
       <c r="Q15" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -36038,12 +37833,12 @@
         <v>10</v>
       </c>
       <c r="B16" s="124" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="127" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -36063,12 +37858,12 @@
         <v>11</v>
       </c>
       <c r="B17" s="125" t="s">
-        <v>905</v>
+        <v>871</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="122" t="s">
-        <v>906</v>
+        <v>872</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
